--- a/data/minutos.xlsx
+++ b/data/minutos.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="bolsa_palabras" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">bolsa_palabras!$A$1:$C$135</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">bolsa_palabras!$A$1:$C$142</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="151">
   <si>
     <t>topico</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">Cruce villaruel - rossi </t>
   </si>
   <si>
-    <t xml:space="preserve">¿ de qué trabaja?mosquita muerta </t>
-  </si>
-  <si>
     <t>bolsa</t>
   </si>
   <si>
@@ -79,7 +76,7 @@
     <t>ajuste</t>
   </si>
   <si>
-    <t>banco central</t>
+    <t xml:space="preserve">banco </t>
   </si>
   <si>
     <t>cambio</t>
@@ -88,7 +85,7 @@
     <t>cargas</t>
   </si>
   <si>
-    <t>déficit</t>
+    <t>deficit</t>
   </si>
   <si>
     <t>deflacion</t>
@@ -157,7 +154,7 @@
     <t>indeminizacion</t>
   </si>
   <si>
-    <t>indice de precios al consumidor</t>
+    <t>consumidor</t>
   </si>
   <si>
     <t>inflacion</t>
@@ -178,7 +175,7 @@
     <t>IPC</t>
   </si>
   <si>
-    <t>iva</t>
+    <t>IVA</t>
   </si>
   <si>
     <t>jornada laboral</t>
@@ -196,7 +193,7 @@
     <t>litio</t>
   </si>
   <si>
-    <t>ministerio de trabajo</t>
+    <t>ministerio</t>
   </si>
   <si>
     <t>monotributistas</t>
@@ -220,7 +217,10 @@
     <t>pobreza</t>
   </si>
   <si>
-    <t>politica economica</t>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>economica</t>
   </si>
   <si>
     <t>precios</t>
@@ -229,9 +229,6 @@
     <t>presupuesto</t>
   </si>
   <si>
-    <t>relación de dependencia</t>
-  </si>
-  <si>
     <t>salario</t>
   </si>
   <si>
@@ -265,7 +262,10 @@
     <t>trabajo</t>
   </si>
   <si>
-    <t>administracion publica</t>
+    <t>administracion</t>
+  </si>
+  <si>
+    <t>publica</t>
   </si>
   <si>
     <t>caos</t>
@@ -286,16 +286,22 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>derecho civil</t>
+    <t>derecho</t>
   </si>
   <si>
     <t>dictadura</t>
   </si>
   <si>
-    <t>derechos civiles</t>
-  </si>
-  <si>
-    <t>derechos humanos</t>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>derechos</t>
+  </si>
+  <si>
+    <t>humanos</t>
+  </si>
+  <si>
+    <t>civiles</t>
   </si>
   <si>
     <t>educacion</t>
@@ -328,13 +334,10 @@
     <t>memoria</t>
   </si>
   <si>
-    <t>ministerio de educacion</t>
-  </si>
-  <si>
     <t>movilizacion</t>
   </si>
   <si>
-    <t>movimientos sociales</t>
+    <t>movimientos</t>
   </si>
   <si>
     <t>órden</t>
@@ -346,7 +349,10 @@
     <t>paro</t>
   </si>
   <si>
-    <t>participacion ciudadana</t>
+    <t>participacion</t>
+  </si>
+  <si>
+    <t>ciudadana</t>
   </si>
   <si>
     <t xml:space="preserve">piquete </t>
@@ -355,13 +361,13 @@
     <t xml:space="preserve">planes </t>
   </si>
   <si>
-    <t>politica educativa</t>
-  </si>
-  <si>
-    <t>politica publica</t>
-  </si>
-  <si>
-    <t>politicas sociales</t>
+    <t>educativa</t>
+  </si>
+  <si>
+    <t>sociales</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>protesta</t>
@@ -376,104 +382,98 @@
     <t>universidades</t>
   </si>
   <si>
+    <t>arma</t>
+  </si>
+  <si>
+    <t>carcel</t>
+  </si>
+  <si>
+    <t>carceles</t>
+  </si>
+  <si>
+    <t>crimen</t>
+  </si>
+  <si>
+    <t>defensa</t>
+  </si>
+  <si>
+    <t>delincuentes</t>
+  </si>
+  <si>
+    <t>drogas</t>
+  </si>
+  <si>
+    <t>fuerzas</t>
+  </si>
+  <si>
+    <t>inseguridad</t>
+  </si>
+  <si>
+    <t>judicial</t>
+  </si>
+  <si>
+    <t>jueces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juez </t>
+  </si>
+  <si>
+    <t>justicia</t>
+  </si>
+  <si>
+    <t>malvinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maten </t>
+  </si>
+  <si>
+    <t>militares</t>
+  </si>
+  <si>
+    <t>muertes</t>
+  </si>
+  <si>
+    <t>narcotrafico</t>
+  </si>
+  <si>
+    <t>penal</t>
+  </si>
+  <si>
+    <t>policia</t>
+  </si>
+  <si>
+    <t>presos</t>
+  </si>
+  <si>
+    <t>reforma</t>
+  </si>
+  <si>
+    <t>robo</t>
+  </si>
+  <si>
+    <t>seguridad</t>
+  </si>
+  <si>
+    <t>trafico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">victimas </t>
+  </si>
+  <si>
+    <t>violencia</t>
+  </si>
+  <si>
     <t>armada</t>
   </si>
   <si>
-    <t>carcel</t>
-  </si>
-  <si>
-    <t>carceles</t>
-  </si>
-  <si>
-    <t>crimen</t>
-  </si>
-  <si>
-    <t>defensa</t>
-  </si>
-  <si>
-    <t>delincuentes</t>
-  </si>
-  <si>
-    <t>derechos</t>
-  </si>
-  <si>
-    <t>drogas</t>
-  </si>
-  <si>
-    <t>fuerzas armadas</t>
-  </si>
-  <si>
-    <t>inseguridad</t>
-  </si>
-  <si>
-    <t>judicial</t>
-  </si>
-  <si>
-    <t>jueces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juez </t>
-  </si>
-  <si>
-    <t>justicia</t>
-  </si>
-  <si>
-    <t>malvinas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maten </t>
-  </si>
-  <si>
-    <t>militares</t>
-  </si>
-  <si>
-    <t>ministerio de defensa</t>
-  </si>
-  <si>
-    <t>ministerio de justicia</t>
-  </si>
-  <si>
-    <t>muertes</t>
-  </si>
-  <si>
-    <t>narcotrafico</t>
-  </si>
-  <si>
-    <t>penal</t>
-  </si>
-  <si>
-    <t>policia</t>
-  </si>
-  <si>
-    <t>politica de seguridad</t>
-  </si>
-  <si>
-    <t>presos</t>
-  </si>
-  <si>
-    <t>reforma judicial</t>
-  </si>
-  <si>
-    <t>robo</t>
-  </si>
-  <si>
-    <t>seguridad</t>
-  </si>
-  <si>
-    <t>trafico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">victimas </t>
-  </si>
-  <si>
-    <t>violencia</t>
+    <t>taser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -498,6 +498,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -519,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -549,6 +553,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -995,9 +1002,6 @@
       <c r="D20" s="3">
         <v>1.1284722222222223</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1020,13 +1024,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -1037,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1048,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1082,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1116,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1150,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1184,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1218,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1252,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1286,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1320,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1354,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1388,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1422,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1456,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1490,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1524,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1558,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1592,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1626,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1660,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -1694,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1728,7 +1732,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1762,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1796,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1830,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -1864,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1898,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1932,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1966,7 +1970,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -1977,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
@@ -1988,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -1999,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -2010,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -2021,7 +2025,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
@@ -2032,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
@@ -2043,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
@@ -2054,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -2065,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -2076,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41">
@@ -2087,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
@@ -2098,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
@@ -2109,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -2120,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
@@ -2131,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
@@ -2142,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -2153,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48">
@@ -2164,7 +2168,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
@@ -2175,7 +2179,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50">
@@ -2185,23 +2189,23 @@
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="52">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>1.0</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2212,25 +2216,25 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="10">
+      <c r="A53" s="6">
         <v>1.0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="55">
@@ -2241,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -2252,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57">
@@ -2263,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
@@ -2274,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
@@ -2285,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
@@ -2296,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
@@ -2307,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
@@ -2318,7 +2322,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -2329,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
@@ -2340,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
@@ -2351,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
@@ -2362,3576 +2366,3647 @@
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="10">
+      <c r="A67" s="11">
         <v>2.0</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="10">
+      <c r="A68" s="11">
         <v>2.0</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>84</v>
+      <c r="C68" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="10">
+      <c r="A69" s="11">
         <v>2.0</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="10">
+      <c r="A70" s="11">
         <v>2.0</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="10">
+      <c r="A71" s="11">
         <v>2.0</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="10">
+      <c r="A72" s="11">
         <v>2.0</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="10">
+      <c r="A73" s="11">
         <v>2.0</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="10">
+      <c r="A74" s="11">
         <v>2.0</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="10">
+      <c r="A75" s="11">
         <v>2.0</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="10">
+      <c r="A76" s="11">
         <v>2.0</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="10">
+      <c r="A77" s="11">
         <v>2.0</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="10">
+      <c r="A78" s="11">
         <v>2.0</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="10">
+      <c r="A79" s="11">
         <v>2.0</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="10">
+      <c r="A80" s="11">
         <v>2.0</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="10">
+      <c r="A81" s="11">
         <v>2.0</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="10">
+      <c r="A82" s="11">
         <v>2.0</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="10">
+      <c r="A83" s="11">
         <v>2.0</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="10">
+      <c r="A84" s="11">
         <v>2.0</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="10">
+      <c r="A85" s="11">
         <v>2.0</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="10">
+      <c r="A86" s="11">
         <v>2.0</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="10">
+      <c r="A87" s="11">
         <v>2.0</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="10">
+      <c r="A88" s="11">
         <v>2.0</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="10">
+      <c r="A89" s="11">
         <v>2.0</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="10">
+      <c r="A90" s="11">
         <v>2.0</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="10">
+      <c r="A91" s="11">
         <v>2.0</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="10">
+      <c r="A92" s="11">
         <v>2.0</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="10">
+      <c r="A93" s="11">
         <v>2.0</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="10">
+      <c r="A94" s="11">
         <v>2.0</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="10">
+      <c r="A95" s="11">
         <v>2.0</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="10">
+      <c r="A96" s="11">
         <v>2.0</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="10">
+      <c r="A97" s="11">
         <v>2.0</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="10">
+      <c r="A98" s="11">
         <v>2.0</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="10">
+      <c r="A99" s="11">
         <v>2.0</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="10">
+      <c r="A100" s="11">
         <v>2.0</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="10">
+      <c r="A101" s="11">
         <v>2.0</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="10">
+      <c r="A102" s="11">
         <v>2.0</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>118</v>
+      <c r="C102" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="10">
+      <c r="A103" s="11">
         <v>2.0</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="1" t="s">
+    <row r="108">
+      <c r="A108" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="1" t="s">
+    <row r="109">
+      <c r="A109" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="110">
-      <c r="A110" s="10">
+      <c r="A110" s="11">
         <v>3.0</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="10">
+      <c r="A111" s="11">
         <v>3.0</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="10">
+      <c r="A112" s="11">
         <v>3.0</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="10">
+      <c r="A113" s="11">
         <v>3.0</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="10">
+      <c r="A114" s="11">
         <v>3.0</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="10">
+      <c r="A115" s="11">
         <v>3.0</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="10">
+      <c r="A116" s="11">
         <v>3.0</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="10">
+      <c r="A117" s="11">
         <v>3.0</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="10">
+      <c r="A118" s="11">
         <v>3.0</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="10">
+      <c r="A119" s="11">
         <v>3.0</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="10">
+      <c r="A120" s="11">
         <v>3.0</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="10">
+      <c r="A121" s="11">
         <v>3.0</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="10">
+      <c r="A122" s="11">
         <v>3.0</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="10">
+      <c r="A123" s="11">
         <v>3.0</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="10">
+      <c r="A124" s="11">
         <v>3.0</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="10">
+      <c r="A125" s="11">
         <v>3.0</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="10">
+      <c r="A126" s="11">
         <v>3.0</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="10">
+      <c r="A127" s="11">
         <v>3.0</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="10">
+      <c r="A128" s="11">
         <v>3.0</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="10">
+      <c r="A129" s="11">
         <v>3.0</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="10">
+      <c r="A130" s="11">
         <v>3.0</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="10">
+      <c r="A131" s="11">
         <v>3.0</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="10">
+      <c r="A132" s="11">
         <v>3.0</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="10">
+      <c r="A133" s="11">
         <v>3.0</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="10">
+      <c r="A134" s="11">
         <v>3.0</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="10">
+      <c r="A135" s="11">
         <v>3.0</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="11"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="11"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="11"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="11"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="11"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="11"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="11"/>
-    </row>
     <row r="143">
-      <c r="A143" s="11"/>
+      <c r="A143" s="12"/>
     </row>
     <row r="144">
-      <c r="A144" s="11"/>
+      <c r="A144" s="12"/>
     </row>
     <row r="145">
-      <c r="A145" s="11"/>
+      <c r="A145" s="12"/>
     </row>
     <row r="146">
-      <c r="A146" s="11"/>
+      <c r="A146" s="12"/>
     </row>
     <row r="147">
-      <c r="A147" s="11"/>
+      <c r="A147" s="12"/>
     </row>
     <row r="148">
-      <c r="A148" s="11"/>
+      <c r="A148" s="12"/>
     </row>
     <row r="149">
-      <c r="A149" s="11"/>
+      <c r="A149" s="12"/>
     </row>
     <row r="150">
-      <c r="A150" s="11"/>
+      <c r="A150" s="12"/>
     </row>
     <row r="151">
-      <c r="A151" s="11"/>
+      <c r="A151" s="12"/>
     </row>
     <row r="152">
-      <c r="A152" s="11"/>
+      <c r="A152" s="12"/>
     </row>
     <row r="153">
-      <c r="A153" s="11"/>
+      <c r="A153" s="12"/>
     </row>
     <row r="154">
-      <c r="A154" s="11"/>
+      <c r="A154" s="12"/>
     </row>
     <row r="155">
-      <c r="A155" s="11"/>
+      <c r="A155" s="12"/>
     </row>
     <row r="156">
-      <c r="A156" s="11"/>
+      <c r="A156" s="12"/>
     </row>
     <row r="157">
-      <c r="A157" s="11"/>
+      <c r="A157" s="12"/>
     </row>
     <row r="158">
-      <c r="A158" s="11"/>
+      <c r="A158" s="12"/>
     </row>
     <row r="159">
-      <c r="A159" s="11"/>
+      <c r="A159" s="12"/>
     </row>
     <row r="160">
-      <c r="A160" s="11"/>
+      <c r="A160" s="12"/>
     </row>
     <row r="161">
-      <c r="A161" s="11"/>
+      <c r="A161" s="12"/>
     </row>
     <row r="162">
-      <c r="A162" s="11"/>
+      <c r="A162" s="12"/>
     </row>
     <row r="163">
-      <c r="A163" s="11"/>
+      <c r="A163" s="12"/>
     </row>
     <row r="164">
-      <c r="A164" s="11"/>
+      <c r="A164" s="12"/>
     </row>
     <row r="165">
-      <c r="A165" s="11"/>
+      <c r="A165" s="12"/>
     </row>
     <row r="166">
-      <c r="A166" s="11"/>
+      <c r="A166" s="12"/>
     </row>
     <row r="167">
-      <c r="A167" s="11"/>
+      <c r="A167" s="12"/>
     </row>
     <row r="168">
-      <c r="A168" s="11"/>
+      <c r="A168" s="12"/>
     </row>
     <row r="169">
-      <c r="A169" s="11"/>
+      <c r="A169" s="12"/>
     </row>
     <row r="170">
-      <c r="A170" s="11"/>
+      <c r="A170" s="12"/>
     </row>
     <row r="171">
-      <c r="A171" s="11"/>
+      <c r="A171" s="12"/>
     </row>
     <row r="172">
-      <c r="A172" s="11"/>
+      <c r="A172" s="12"/>
     </row>
     <row r="173">
-      <c r="A173" s="11"/>
+      <c r="A173" s="12"/>
     </row>
     <row r="174">
-      <c r="A174" s="11"/>
+      <c r="A174" s="12"/>
     </row>
     <row r="175">
-      <c r="A175" s="11"/>
+      <c r="A175" s="12"/>
     </row>
     <row r="176">
-      <c r="A176" s="11"/>
+      <c r="A176" s="12"/>
     </row>
     <row r="177">
-      <c r="A177" s="11"/>
+      <c r="A177" s="12"/>
     </row>
     <row r="178">
-      <c r="A178" s="11"/>
+      <c r="A178" s="12"/>
     </row>
     <row r="179">
-      <c r="A179" s="11"/>
+      <c r="A179" s="12"/>
     </row>
     <row r="180">
-      <c r="A180" s="11"/>
+      <c r="A180" s="12"/>
     </row>
     <row r="181">
-      <c r="A181" s="11"/>
+      <c r="A181" s="12"/>
     </row>
     <row r="182">
-      <c r="A182" s="11"/>
+      <c r="A182" s="12"/>
     </row>
     <row r="183">
-      <c r="A183" s="11"/>
+      <c r="A183" s="12"/>
     </row>
     <row r="184">
-      <c r="A184" s="11"/>
+      <c r="A184" s="12"/>
     </row>
     <row r="185">
-      <c r="A185" s="11"/>
+      <c r="A185" s="12"/>
     </row>
     <row r="186">
-      <c r="A186" s="11"/>
+      <c r="A186" s="12"/>
     </row>
     <row r="187">
-      <c r="A187" s="11"/>
+      <c r="A187" s="12"/>
     </row>
     <row r="188">
-      <c r="A188" s="11"/>
+      <c r="A188" s="12"/>
     </row>
     <row r="189">
-      <c r="A189" s="11"/>
+      <c r="A189" s="12"/>
     </row>
     <row r="190">
-      <c r="A190" s="11"/>
+      <c r="A190" s="12"/>
     </row>
     <row r="191">
-      <c r="A191" s="11"/>
+      <c r="A191" s="12"/>
     </row>
     <row r="192">
-      <c r="A192" s="11"/>
+      <c r="A192" s="12"/>
     </row>
     <row r="193">
-      <c r="A193" s="11"/>
+      <c r="A193" s="12"/>
     </row>
     <row r="194">
-      <c r="A194" s="11"/>
+      <c r="A194" s="12"/>
     </row>
     <row r="195">
-      <c r="A195" s="11"/>
+      <c r="A195" s="12"/>
     </row>
     <row r="196">
-      <c r="A196" s="11"/>
+      <c r="A196" s="12"/>
     </row>
     <row r="197">
-      <c r="A197" s="11"/>
+      <c r="A197" s="12"/>
     </row>
     <row r="198">
-      <c r="A198" s="11"/>
+      <c r="A198" s="12"/>
     </row>
     <row r="199">
-      <c r="A199" s="11"/>
+      <c r="A199" s="12"/>
     </row>
     <row r="200">
-      <c r="A200" s="11"/>
+      <c r="A200" s="12"/>
     </row>
     <row r="201">
-      <c r="A201" s="11"/>
+      <c r="A201" s="12"/>
     </row>
     <row r="202">
-      <c r="A202" s="11"/>
+      <c r="A202" s="12"/>
     </row>
     <row r="203">
-      <c r="A203" s="11"/>
+      <c r="A203" s="12"/>
     </row>
     <row r="204">
-      <c r="A204" s="11"/>
+      <c r="A204" s="12"/>
     </row>
     <row r="205">
-      <c r="A205" s="11"/>
+      <c r="A205" s="12"/>
     </row>
     <row r="206">
-      <c r="A206" s="11"/>
+      <c r="A206" s="12"/>
     </row>
     <row r="207">
-      <c r="A207" s="11"/>
+      <c r="A207" s="12"/>
     </row>
     <row r="208">
-      <c r="A208" s="11"/>
+      <c r="A208" s="12"/>
     </row>
     <row r="209">
-      <c r="A209" s="11"/>
+      <c r="A209" s="12"/>
     </row>
     <row r="210">
-      <c r="A210" s="11"/>
+      <c r="A210" s="12"/>
     </row>
     <row r="211">
-      <c r="A211" s="11"/>
+      <c r="A211" s="12"/>
     </row>
     <row r="212">
-      <c r="A212" s="11"/>
+      <c r="A212" s="12"/>
     </row>
     <row r="213">
-      <c r="A213" s="11"/>
+      <c r="A213" s="12"/>
     </row>
     <row r="214">
-      <c r="A214" s="11"/>
+      <c r="A214" s="12"/>
     </row>
     <row r="215">
-      <c r="A215" s="11"/>
+      <c r="A215" s="12"/>
     </row>
     <row r="216">
-      <c r="A216" s="11"/>
+      <c r="A216" s="12"/>
     </row>
     <row r="217">
-      <c r="A217" s="11"/>
+      <c r="A217" s="12"/>
     </row>
     <row r="218">
-      <c r="A218" s="11"/>
+      <c r="A218" s="12"/>
     </row>
     <row r="219">
-      <c r="A219" s="11"/>
+      <c r="A219" s="12"/>
     </row>
     <row r="220">
-      <c r="A220" s="11"/>
+      <c r="A220" s="12"/>
     </row>
     <row r="221">
-      <c r="A221" s="11"/>
+      <c r="A221" s="12"/>
     </row>
     <row r="222">
-      <c r="A222" s="11"/>
+      <c r="A222" s="12"/>
     </row>
     <row r="223">
-      <c r="A223" s="11"/>
+      <c r="A223" s="12"/>
     </row>
     <row r="224">
-      <c r="A224" s="11"/>
+      <c r="A224" s="12"/>
     </row>
     <row r="225">
-      <c r="A225" s="11"/>
+      <c r="A225" s="12"/>
     </row>
     <row r="226">
-      <c r="A226" s="11"/>
+      <c r="A226" s="12"/>
     </row>
     <row r="227">
-      <c r="A227" s="11"/>
+      <c r="A227" s="12"/>
     </row>
     <row r="228">
-      <c r="A228" s="11"/>
+      <c r="A228" s="12"/>
     </row>
     <row r="229">
-      <c r="A229" s="11"/>
+      <c r="A229" s="12"/>
     </row>
     <row r="230">
-      <c r="A230" s="11"/>
+      <c r="A230" s="12"/>
     </row>
     <row r="231">
-      <c r="A231" s="11"/>
+      <c r="A231" s="12"/>
     </row>
     <row r="232">
-      <c r="A232" s="11"/>
+      <c r="A232" s="12"/>
     </row>
     <row r="233">
-      <c r="A233" s="11"/>
+      <c r="A233" s="12"/>
     </row>
     <row r="234">
-      <c r="A234" s="11"/>
+      <c r="A234" s="12"/>
     </row>
     <row r="235">
-      <c r="A235" s="11"/>
+      <c r="A235" s="12"/>
     </row>
     <row r="236">
-      <c r="A236" s="11"/>
+      <c r="A236" s="12"/>
     </row>
     <row r="237">
-      <c r="A237" s="11"/>
+      <c r="A237" s="12"/>
     </row>
     <row r="238">
-      <c r="A238" s="11"/>
+      <c r="A238" s="12"/>
     </row>
     <row r="239">
-      <c r="A239" s="11"/>
+      <c r="A239" s="12"/>
     </row>
     <row r="240">
-      <c r="A240" s="11"/>
+      <c r="A240" s="12"/>
     </row>
     <row r="241">
-      <c r="A241" s="11"/>
+      <c r="A241" s="12"/>
     </row>
     <row r="242">
-      <c r="A242" s="11"/>
+      <c r="A242" s="12"/>
     </row>
     <row r="243">
-      <c r="A243" s="11"/>
+      <c r="A243" s="12"/>
     </row>
     <row r="244">
-      <c r="A244" s="11"/>
+      <c r="A244" s="12"/>
     </row>
     <row r="245">
-      <c r="A245" s="11"/>
+      <c r="A245" s="12"/>
     </row>
     <row r="246">
-      <c r="A246" s="11"/>
+      <c r="A246" s="12"/>
     </row>
     <row r="247">
-      <c r="A247" s="11"/>
+      <c r="A247" s="12"/>
     </row>
     <row r="248">
-      <c r="A248" s="11"/>
+      <c r="A248" s="12"/>
     </row>
     <row r="249">
-      <c r="A249" s="11"/>
+      <c r="A249" s="12"/>
     </row>
     <row r="250">
-      <c r="A250" s="11"/>
+      <c r="A250" s="12"/>
     </row>
     <row r="251">
-      <c r="A251" s="11"/>
+      <c r="A251" s="12"/>
     </row>
     <row r="252">
-      <c r="A252" s="11"/>
+      <c r="A252" s="12"/>
     </row>
     <row r="253">
-      <c r="A253" s="11"/>
+      <c r="A253" s="12"/>
     </row>
     <row r="254">
-      <c r="A254" s="11"/>
+      <c r="A254" s="12"/>
     </row>
     <row r="255">
-      <c r="A255" s="11"/>
+      <c r="A255" s="12"/>
     </row>
     <row r="256">
-      <c r="A256" s="11"/>
+      <c r="A256" s="12"/>
     </row>
     <row r="257">
-      <c r="A257" s="11"/>
+      <c r="A257" s="12"/>
     </row>
     <row r="258">
-      <c r="A258" s="11"/>
+      <c r="A258" s="12"/>
     </row>
     <row r="259">
-      <c r="A259" s="11"/>
+      <c r="A259" s="12"/>
     </row>
     <row r="260">
-      <c r="A260" s="11"/>
+      <c r="A260" s="12"/>
     </row>
     <row r="261">
-      <c r="A261" s="11"/>
+      <c r="A261" s="12"/>
     </row>
     <row r="262">
-      <c r="A262" s="11"/>
+      <c r="A262" s="12"/>
     </row>
     <row r="263">
-      <c r="A263" s="11"/>
+      <c r="A263" s="12"/>
     </row>
     <row r="264">
-      <c r="A264" s="11"/>
+      <c r="A264" s="12"/>
     </row>
     <row r="265">
-      <c r="A265" s="11"/>
+      <c r="A265" s="12"/>
     </row>
     <row r="266">
-      <c r="A266" s="11"/>
+      <c r="A266" s="12"/>
     </row>
     <row r="267">
-      <c r="A267" s="11"/>
+      <c r="A267" s="12"/>
     </row>
     <row r="268">
-      <c r="A268" s="11"/>
+      <c r="A268" s="12"/>
     </row>
     <row r="269">
-      <c r="A269" s="11"/>
+      <c r="A269" s="12"/>
     </row>
     <row r="270">
-      <c r="A270" s="11"/>
+      <c r="A270" s="12"/>
     </row>
     <row r="271">
-      <c r="A271" s="11"/>
+      <c r="A271" s="12"/>
     </row>
     <row r="272">
-      <c r="A272" s="11"/>
+      <c r="A272" s="12"/>
     </row>
     <row r="273">
-      <c r="A273" s="11"/>
+      <c r="A273" s="12"/>
     </row>
     <row r="274">
-      <c r="A274" s="11"/>
+      <c r="A274" s="12"/>
     </row>
     <row r="275">
-      <c r="A275" s="11"/>
+      <c r="A275" s="12"/>
     </row>
     <row r="276">
-      <c r="A276" s="11"/>
+      <c r="A276" s="12"/>
     </row>
     <row r="277">
-      <c r="A277" s="11"/>
+      <c r="A277" s="12"/>
     </row>
     <row r="278">
-      <c r="A278" s="11"/>
+      <c r="A278" s="12"/>
     </row>
     <row r="279">
-      <c r="A279" s="11"/>
+      <c r="A279" s="12"/>
     </row>
     <row r="280">
-      <c r="A280" s="11"/>
+      <c r="A280" s="12"/>
     </row>
     <row r="281">
-      <c r="A281" s="11"/>
+      <c r="A281" s="12"/>
     </row>
     <row r="282">
-      <c r="A282" s="11"/>
+      <c r="A282" s="12"/>
     </row>
     <row r="283">
-      <c r="A283" s="11"/>
+      <c r="A283" s="12"/>
     </row>
     <row r="284">
-      <c r="A284" s="11"/>
+      <c r="A284" s="12"/>
     </row>
     <row r="285">
-      <c r="A285" s="11"/>
+      <c r="A285" s="12"/>
     </row>
     <row r="286">
-      <c r="A286" s="11"/>
+      <c r="A286" s="12"/>
     </row>
     <row r="287">
-      <c r="A287" s="11"/>
+      <c r="A287" s="12"/>
     </row>
     <row r="288">
-      <c r="A288" s="11"/>
+      <c r="A288" s="12"/>
     </row>
     <row r="289">
-      <c r="A289" s="11"/>
+      <c r="A289" s="12"/>
     </row>
     <row r="290">
-      <c r="A290" s="11"/>
+      <c r="A290" s="12"/>
     </row>
     <row r="291">
-      <c r="A291" s="11"/>
+      <c r="A291" s="12"/>
     </row>
     <row r="292">
-      <c r="A292" s="11"/>
+      <c r="A292" s="12"/>
     </row>
     <row r="293">
-      <c r="A293" s="11"/>
+      <c r="A293" s="12"/>
     </row>
     <row r="294">
-      <c r="A294" s="11"/>
+      <c r="A294" s="12"/>
     </row>
     <row r="295">
-      <c r="A295" s="11"/>
+      <c r="A295" s="12"/>
     </row>
     <row r="296">
-      <c r="A296" s="11"/>
+      <c r="A296" s="12"/>
     </row>
     <row r="297">
-      <c r="A297" s="11"/>
+      <c r="A297" s="12"/>
     </row>
     <row r="298">
-      <c r="A298" s="11"/>
+      <c r="A298" s="12"/>
     </row>
     <row r="299">
-      <c r="A299" s="11"/>
+      <c r="A299" s="12"/>
     </row>
     <row r="300">
-      <c r="A300" s="11"/>
+      <c r="A300" s="12"/>
     </row>
     <row r="301">
-      <c r="A301" s="11"/>
+      <c r="A301" s="12"/>
     </row>
     <row r="302">
-      <c r="A302" s="11"/>
+      <c r="A302" s="12"/>
     </row>
     <row r="303">
-      <c r="A303" s="11"/>
+      <c r="A303" s="12"/>
     </row>
     <row r="304">
-      <c r="A304" s="11"/>
+      <c r="A304" s="12"/>
     </row>
     <row r="305">
-      <c r="A305" s="11"/>
+      <c r="A305" s="12"/>
     </row>
     <row r="306">
-      <c r="A306" s="11"/>
+      <c r="A306" s="12"/>
     </row>
     <row r="307">
-      <c r="A307" s="11"/>
+      <c r="A307" s="12"/>
     </row>
     <row r="308">
-      <c r="A308" s="11"/>
+      <c r="A308" s="12"/>
     </row>
     <row r="309">
-      <c r="A309" s="11"/>
+      <c r="A309" s="12"/>
     </row>
     <row r="310">
-      <c r="A310" s="11"/>
+      <c r="A310" s="12"/>
     </row>
     <row r="311">
-      <c r="A311" s="11"/>
+      <c r="A311" s="12"/>
     </row>
     <row r="312">
-      <c r="A312" s="11"/>
+      <c r="A312" s="12"/>
     </row>
     <row r="313">
-      <c r="A313" s="11"/>
+      <c r="A313" s="12"/>
     </row>
     <row r="314">
-      <c r="A314" s="11"/>
+      <c r="A314" s="12"/>
     </row>
     <row r="315">
-      <c r="A315" s="11"/>
+      <c r="A315" s="12"/>
     </row>
     <row r="316">
-      <c r="A316" s="11"/>
+      <c r="A316" s="12"/>
     </row>
     <row r="317">
-      <c r="A317" s="11"/>
+      <c r="A317" s="12"/>
     </row>
     <row r="318">
-      <c r="A318" s="11"/>
+      <c r="A318" s="12"/>
     </row>
     <row r="319">
-      <c r="A319" s="11"/>
+      <c r="A319" s="12"/>
     </row>
     <row r="320">
-      <c r="A320" s="11"/>
+      <c r="A320" s="12"/>
     </row>
     <row r="321">
-      <c r="A321" s="11"/>
+      <c r="A321" s="12"/>
     </row>
     <row r="322">
-      <c r="A322" s="11"/>
+      <c r="A322" s="12"/>
     </row>
     <row r="323">
-      <c r="A323" s="11"/>
+      <c r="A323" s="12"/>
     </row>
     <row r="324">
-      <c r="A324" s="11"/>
+      <c r="A324" s="12"/>
     </row>
     <row r="325">
-      <c r="A325" s="11"/>
+      <c r="A325" s="12"/>
     </row>
     <row r="326">
-      <c r="A326" s="11"/>
+      <c r="A326" s="12"/>
     </row>
     <row r="327">
-      <c r="A327" s="11"/>
+      <c r="A327" s="12"/>
     </row>
     <row r="328">
-      <c r="A328" s="11"/>
+      <c r="A328" s="12"/>
     </row>
     <row r="329">
-      <c r="A329" s="11"/>
+      <c r="A329" s="12"/>
     </row>
     <row r="330">
-      <c r="A330" s="11"/>
+      <c r="A330" s="12"/>
     </row>
     <row r="331">
-      <c r="A331" s="11"/>
+      <c r="A331" s="12"/>
     </row>
     <row r="332">
-      <c r="A332" s="11"/>
+      <c r="A332" s="12"/>
     </row>
     <row r="333">
-      <c r="A333" s="11"/>
+      <c r="A333" s="12"/>
     </row>
     <row r="334">
-      <c r="A334" s="11"/>
+      <c r="A334" s="12"/>
     </row>
     <row r="335">
-      <c r="A335" s="11"/>
+      <c r="A335" s="12"/>
     </row>
     <row r="336">
-      <c r="A336" s="11"/>
+      <c r="A336" s="12"/>
     </row>
     <row r="337">
-      <c r="A337" s="11"/>
+      <c r="A337" s="12"/>
     </row>
     <row r="338">
-      <c r="A338" s="11"/>
+      <c r="A338" s="12"/>
     </row>
     <row r="339">
-      <c r="A339" s="11"/>
+      <c r="A339" s="12"/>
     </row>
     <row r="340">
-      <c r="A340" s="11"/>
+      <c r="A340" s="12"/>
     </row>
     <row r="341">
-      <c r="A341" s="11"/>
+      <c r="A341" s="12"/>
     </row>
     <row r="342">
-      <c r="A342" s="11"/>
+      <c r="A342" s="12"/>
     </row>
     <row r="343">
-      <c r="A343" s="11"/>
+      <c r="A343" s="12"/>
     </row>
     <row r="344">
-      <c r="A344" s="11"/>
+      <c r="A344" s="12"/>
     </row>
     <row r="345">
-      <c r="A345" s="11"/>
+      <c r="A345" s="12"/>
     </row>
     <row r="346">
-      <c r="A346" s="11"/>
+      <c r="A346" s="12"/>
     </row>
     <row r="347">
-      <c r="A347" s="11"/>
+      <c r="A347" s="12"/>
     </row>
     <row r="348">
-      <c r="A348" s="11"/>
+      <c r="A348" s="12"/>
     </row>
     <row r="349">
-      <c r="A349" s="11"/>
+      <c r="A349" s="12"/>
     </row>
     <row r="350">
-      <c r="A350" s="11"/>
+      <c r="A350" s="12"/>
     </row>
     <row r="351">
-      <c r="A351" s="11"/>
+      <c r="A351" s="12"/>
     </row>
     <row r="352">
-      <c r="A352" s="11"/>
+      <c r="A352" s="12"/>
     </row>
     <row r="353">
-      <c r="A353" s="11"/>
+      <c r="A353" s="12"/>
     </row>
     <row r="354">
-      <c r="A354" s="11"/>
+      <c r="A354" s="12"/>
     </row>
     <row r="355">
-      <c r="A355" s="11"/>
+      <c r="A355" s="12"/>
     </row>
     <row r="356">
-      <c r="A356" s="11"/>
+      <c r="A356" s="12"/>
     </row>
     <row r="357">
-      <c r="A357" s="11"/>
+      <c r="A357" s="12"/>
     </row>
     <row r="358">
-      <c r="A358" s="11"/>
+      <c r="A358" s="12"/>
     </row>
     <row r="359">
-      <c r="A359" s="11"/>
+      <c r="A359" s="12"/>
     </row>
     <row r="360">
-      <c r="A360" s="11"/>
+      <c r="A360" s="12"/>
     </row>
     <row r="361">
-      <c r="A361" s="11"/>
+      <c r="A361" s="12"/>
     </row>
     <row r="362">
-      <c r="A362" s="11"/>
+      <c r="A362" s="12"/>
     </row>
     <row r="363">
-      <c r="A363" s="11"/>
+      <c r="A363" s="12"/>
     </row>
     <row r="364">
-      <c r="A364" s="11"/>
+      <c r="A364" s="12"/>
     </row>
     <row r="365">
-      <c r="A365" s="11"/>
+      <c r="A365" s="12"/>
     </row>
     <row r="366">
-      <c r="A366" s="11"/>
+      <c r="A366" s="12"/>
     </row>
     <row r="367">
-      <c r="A367" s="11"/>
+      <c r="A367" s="12"/>
     </row>
     <row r="368">
-      <c r="A368" s="11"/>
+      <c r="A368" s="12"/>
     </row>
     <row r="369">
-      <c r="A369" s="11"/>
+      <c r="A369" s="12"/>
     </row>
     <row r="370">
-      <c r="A370" s="11"/>
+      <c r="A370" s="12"/>
     </row>
     <row r="371">
-      <c r="A371" s="11"/>
+      <c r="A371" s="12"/>
     </row>
     <row r="372">
-      <c r="A372" s="11"/>
+      <c r="A372" s="12"/>
     </row>
     <row r="373">
-      <c r="A373" s="11"/>
+      <c r="A373" s="12"/>
     </row>
     <row r="374">
-      <c r="A374" s="11"/>
+      <c r="A374" s="12"/>
     </row>
     <row r="375">
-      <c r="A375" s="11"/>
+      <c r="A375" s="12"/>
     </row>
     <row r="376">
-      <c r="A376" s="11"/>
+      <c r="A376" s="12"/>
     </row>
     <row r="377">
-      <c r="A377" s="11"/>
+      <c r="A377" s="12"/>
     </row>
     <row r="378">
-      <c r="A378" s="11"/>
+      <c r="A378" s="12"/>
     </row>
     <row r="379">
-      <c r="A379" s="11"/>
+      <c r="A379" s="12"/>
     </row>
     <row r="380">
-      <c r="A380" s="11"/>
+      <c r="A380" s="12"/>
     </row>
     <row r="381">
-      <c r="A381" s="11"/>
+      <c r="A381" s="12"/>
     </row>
     <row r="382">
-      <c r="A382" s="11"/>
+      <c r="A382" s="12"/>
     </row>
     <row r="383">
-      <c r="A383" s="11"/>
+      <c r="A383" s="12"/>
     </row>
     <row r="384">
-      <c r="A384" s="11"/>
+      <c r="A384" s="12"/>
     </row>
     <row r="385">
-      <c r="A385" s="11"/>
+      <c r="A385" s="12"/>
     </row>
     <row r="386">
-      <c r="A386" s="11"/>
+      <c r="A386" s="12"/>
     </row>
     <row r="387">
-      <c r="A387" s="11"/>
+      <c r="A387" s="12"/>
     </row>
     <row r="388">
-      <c r="A388" s="11"/>
+      <c r="A388" s="12"/>
     </row>
     <row r="389">
-      <c r="A389" s="11"/>
+      <c r="A389" s="12"/>
     </row>
     <row r="390">
-      <c r="A390" s="11"/>
+      <c r="A390" s="12"/>
     </row>
     <row r="391">
-      <c r="A391" s="11"/>
+      <c r="A391" s="12"/>
     </row>
     <row r="392">
-      <c r="A392" s="11"/>
+      <c r="A392" s="12"/>
     </row>
     <row r="393">
-      <c r="A393" s="11"/>
+      <c r="A393" s="12"/>
     </row>
     <row r="394">
-      <c r="A394" s="11"/>
+      <c r="A394" s="12"/>
     </row>
     <row r="395">
-      <c r="A395" s="11"/>
+      <c r="A395" s="12"/>
     </row>
     <row r="396">
-      <c r="A396" s="11"/>
+      <c r="A396" s="12"/>
     </row>
     <row r="397">
-      <c r="A397" s="11"/>
+      <c r="A397" s="12"/>
     </row>
     <row r="398">
-      <c r="A398" s="11"/>
+      <c r="A398" s="12"/>
     </row>
     <row r="399">
-      <c r="A399" s="11"/>
+      <c r="A399" s="12"/>
     </row>
     <row r="400">
-      <c r="A400" s="11"/>
+      <c r="A400" s="12"/>
     </row>
     <row r="401">
-      <c r="A401" s="11"/>
+      <c r="A401" s="12"/>
     </row>
     <row r="402">
-      <c r="A402" s="11"/>
+      <c r="A402" s="12"/>
     </row>
     <row r="403">
-      <c r="A403" s="11"/>
+      <c r="A403" s="12"/>
     </row>
     <row r="404">
-      <c r="A404" s="11"/>
+      <c r="A404" s="12"/>
     </row>
     <row r="405">
-      <c r="A405" s="11"/>
+      <c r="A405" s="12"/>
     </row>
     <row r="406">
-      <c r="A406" s="11"/>
+      <c r="A406" s="12"/>
     </row>
     <row r="407">
-      <c r="A407" s="11"/>
+      <c r="A407" s="12"/>
     </row>
     <row r="408">
-      <c r="A408" s="11"/>
+      <c r="A408" s="12"/>
     </row>
     <row r="409">
-      <c r="A409" s="11"/>
+      <c r="A409" s="12"/>
     </row>
     <row r="410">
-      <c r="A410" s="11"/>
+      <c r="A410" s="12"/>
     </row>
     <row r="411">
-      <c r="A411" s="11"/>
+      <c r="A411" s="12"/>
     </row>
     <row r="412">
-      <c r="A412" s="11"/>
+      <c r="A412" s="12"/>
     </row>
     <row r="413">
-      <c r="A413" s="11"/>
+      <c r="A413" s="12"/>
     </row>
     <row r="414">
-      <c r="A414" s="11"/>
+      <c r="A414" s="12"/>
     </row>
     <row r="415">
-      <c r="A415" s="11"/>
+      <c r="A415" s="12"/>
     </row>
     <row r="416">
-      <c r="A416" s="11"/>
+      <c r="A416" s="12"/>
     </row>
     <row r="417">
-      <c r="A417" s="11"/>
+      <c r="A417" s="12"/>
     </row>
     <row r="418">
-      <c r="A418" s="11"/>
+      <c r="A418" s="12"/>
     </row>
     <row r="419">
-      <c r="A419" s="11"/>
+      <c r="A419" s="12"/>
     </row>
     <row r="420">
-      <c r="A420" s="11"/>
+      <c r="A420" s="12"/>
     </row>
     <row r="421">
-      <c r="A421" s="11"/>
+      <c r="A421" s="12"/>
     </row>
     <row r="422">
-      <c r="A422" s="11"/>
+      <c r="A422" s="12"/>
     </row>
     <row r="423">
-      <c r="A423" s="11"/>
+      <c r="A423" s="12"/>
     </row>
     <row r="424">
-      <c r="A424" s="11"/>
+      <c r="A424" s="12"/>
     </row>
     <row r="425">
-      <c r="A425" s="11"/>
+      <c r="A425" s="12"/>
     </row>
     <row r="426">
-      <c r="A426" s="11"/>
+      <c r="A426" s="12"/>
     </row>
     <row r="427">
-      <c r="A427" s="11"/>
+      <c r="A427" s="12"/>
     </row>
     <row r="428">
-      <c r="A428" s="11"/>
+      <c r="A428" s="12"/>
     </row>
     <row r="429">
-      <c r="A429" s="11"/>
+      <c r="A429" s="12"/>
     </row>
     <row r="430">
-      <c r="A430" s="11"/>
+      <c r="A430" s="12"/>
     </row>
     <row r="431">
-      <c r="A431" s="11"/>
+      <c r="A431" s="12"/>
     </row>
     <row r="432">
-      <c r="A432" s="11"/>
+      <c r="A432" s="12"/>
     </row>
     <row r="433">
-      <c r="A433" s="11"/>
+      <c r="A433" s="12"/>
     </row>
     <row r="434">
-      <c r="A434" s="11"/>
+      <c r="A434" s="12"/>
     </row>
     <row r="435">
-      <c r="A435" s="11"/>
+      <c r="A435" s="12"/>
     </row>
     <row r="436">
-      <c r="A436" s="11"/>
+      <c r="A436" s="12"/>
     </row>
     <row r="437">
-      <c r="A437" s="11"/>
+      <c r="A437" s="12"/>
     </row>
     <row r="438">
-      <c r="A438" s="11"/>
+      <c r="A438" s="12"/>
     </row>
     <row r="439">
-      <c r="A439" s="11"/>
+      <c r="A439" s="12"/>
     </row>
     <row r="440">
-      <c r="A440" s="11"/>
+      <c r="A440" s="12"/>
     </row>
     <row r="441">
-      <c r="A441" s="11"/>
+      <c r="A441" s="12"/>
     </row>
     <row r="442">
-      <c r="A442" s="11"/>
+      <c r="A442" s="12"/>
     </row>
     <row r="443">
-      <c r="A443" s="11"/>
+      <c r="A443" s="12"/>
     </row>
     <row r="444">
-      <c r="A444" s="11"/>
+      <c r="A444" s="12"/>
     </row>
     <row r="445">
-      <c r="A445" s="11"/>
+      <c r="A445" s="12"/>
     </row>
     <row r="446">
-      <c r="A446" s="11"/>
+      <c r="A446" s="12"/>
     </row>
     <row r="447">
-      <c r="A447" s="11"/>
+      <c r="A447" s="12"/>
     </row>
     <row r="448">
-      <c r="A448" s="11"/>
+      <c r="A448" s="12"/>
     </row>
     <row r="449">
-      <c r="A449" s="11"/>
+      <c r="A449" s="12"/>
     </row>
     <row r="450">
-      <c r="A450" s="11"/>
+      <c r="A450" s="12"/>
     </row>
     <row r="451">
-      <c r="A451" s="11"/>
+      <c r="A451" s="12"/>
     </row>
     <row r="452">
-      <c r="A452" s="11"/>
+      <c r="A452" s="12"/>
     </row>
     <row r="453">
-      <c r="A453" s="11"/>
+      <c r="A453" s="12"/>
     </row>
     <row r="454">
-      <c r="A454" s="11"/>
+      <c r="A454" s="12"/>
     </row>
     <row r="455">
-      <c r="A455" s="11"/>
+      <c r="A455" s="12"/>
     </row>
     <row r="456">
-      <c r="A456" s="11"/>
+      <c r="A456" s="12"/>
     </row>
     <row r="457">
-      <c r="A457" s="11"/>
+      <c r="A457" s="12"/>
     </row>
     <row r="458">
-      <c r="A458" s="11"/>
+      <c r="A458" s="12"/>
     </row>
     <row r="459">
-      <c r="A459" s="11"/>
+      <c r="A459" s="12"/>
     </row>
     <row r="460">
-      <c r="A460" s="11"/>
+      <c r="A460" s="12"/>
     </row>
     <row r="461">
-      <c r="A461" s="11"/>
+      <c r="A461" s="12"/>
     </row>
     <row r="462">
-      <c r="A462" s="11"/>
+      <c r="A462" s="12"/>
     </row>
     <row r="463">
-      <c r="A463" s="11"/>
+      <c r="A463" s="12"/>
     </row>
     <row r="464">
-      <c r="A464" s="11"/>
+      <c r="A464" s="12"/>
     </row>
     <row r="465">
-      <c r="A465" s="11"/>
+      <c r="A465" s="12"/>
     </row>
     <row r="466">
-      <c r="A466" s="11"/>
+      <c r="A466" s="12"/>
     </row>
     <row r="467">
-      <c r="A467" s="11"/>
+      <c r="A467" s="12"/>
     </row>
     <row r="468">
-      <c r="A468" s="11"/>
+      <c r="A468" s="12"/>
     </row>
     <row r="469">
-      <c r="A469" s="11"/>
+      <c r="A469" s="12"/>
     </row>
     <row r="470">
-      <c r="A470" s="11"/>
+      <c r="A470" s="12"/>
     </row>
     <row r="471">
-      <c r="A471" s="11"/>
+      <c r="A471" s="12"/>
     </row>
     <row r="472">
-      <c r="A472" s="11"/>
+      <c r="A472" s="12"/>
     </row>
     <row r="473">
-      <c r="A473" s="11"/>
+      <c r="A473" s="12"/>
     </row>
     <row r="474">
-      <c r="A474" s="11"/>
+      <c r="A474" s="12"/>
     </row>
     <row r="475">
-      <c r="A475" s="11"/>
+      <c r="A475" s="12"/>
     </row>
     <row r="476">
-      <c r="A476" s="11"/>
+      <c r="A476" s="12"/>
     </row>
     <row r="477">
-      <c r="A477" s="11"/>
+      <c r="A477" s="12"/>
     </row>
     <row r="478">
-      <c r="A478" s="11"/>
+      <c r="A478" s="12"/>
     </row>
     <row r="479">
-      <c r="A479" s="11"/>
+      <c r="A479" s="12"/>
     </row>
     <row r="480">
-      <c r="A480" s="11"/>
+      <c r="A480" s="12"/>
     </row>
     <row r="481">
-      <c r="A481" s="11"/>
+      <c r="A481" s="12"/>
     </row>
     <row r="482">
-      <c r="A482" s="11"/>
+      <c r="A482" s="12"/>
     </row>
     <row r="483">
-      <c r="A483" s="11"/>
+      <c r="A483" s="12"/>
     </row>
     <row r="484">
-      <c r="A484" s="11"/>
+      <c r="A484" s="12"/>
     </row>
     <row r="485">
-      <c r="A485" s="11"/>
+      <c r="A485" s="12"/>
     </row>
     <row r="486">
-      <c r="A486" s="11"/>
+      <c r="A486" s="12"/>
     </row>
     <row r="487">
-      <c r="A487" s="11"/>
+      <c r="A487" s="12"/>
     </row>
     <row r="488">
-      <c r="A488" s="11"/>
+      <c r="A488" s="12"/>
     </row>
     <row r="489">
-      <c r="A489" s="11"/>
+      <c r="A489" s="12"/>
     </row>
     <row r="490">
-      <c r="A490" s="11"/>
+      <c r="A490" s="12"/>
     </row>
     <row r="491">
-      <c r="A491" s="11"/>
+      <c r="A491" s="12"/>
     </row>
     <row r="492">
-      <c r="A492" s="11"/>
+      <c r="A492" s="12"/>
     </row>
     <row r="493">
-      <c r="A493" s="11"/>
+      <c r="A493" s="12"/>
     </row>
     <row r="494">
-      <c r="A494" s="11"/>
+      <c r="A494" s="12"/>
     </row>
     <row r="495">
-      <c r="A495" s="11"/>
+      <c r="A495" s="12"/>
     </row>
     <row r="496">
-      <c r="A496" s="11"/>
+      <c r="A496" s="12"/>
     </row>
     <row r="497">
-      <c r="A497" s="11"/>
+      <c r="A497" s="12"/>
     </row>
     <row r="498">
-      <c r="A498" s="11"/>
+      <c r="A498" s="12"/>
     </row>
     <row r="499">
-      <c r="A499" s="11"/>
+      <c r="A499" s="12"/>
     </row>
     <row r="500">
-      <c r="A500" s="11"/>
+      <c r="A500" s="12"/>
     </row>
     <row r="501">
-      <c r="A501" s="11"/>
+      <c r="A501" s="12"/>
     </row>
     <row r="502">
-      <c r="A502" s="11"/>
+      <c r="A502" s="12"/>
     </row>
     <row r="503">
-      <c r="A503" s="11"/>
+      <c r="A503" s="12"/>
     </row>
     <row r="504">
-      <c r="A504" s="11"/>
+      <c r="A504" s="12"/>
     </row>
     <row r="505">
-      <c r="A505" s="11"/>
+      <c r="A505" s="12"/>
     </row>
     <row r="506">
-      <c r="A506" s="11"/>
+      <c r="A506" s="12"/>
     </row>
     <row r="507">
-      <c r="A507" s="11"/>
+      <c r="A507" s="12"/>
     </row>
     <row r="508">
-      <c r="A508" s="11"/>
+      <c r="A508" s="12"/>
     </row>
     <row r="509">
-      <c r="A509" s="11"/>
+      <c r="A509" s="12"/>
     </row>
     <row r="510">
-      <c r="A510" s="11"/>
+      <c r="A510" s="12"/>
     </row>
     <row r="511">
-      <c r="A511" s="11"/>
+      <c r="A511" s="12"/>
     </row>
     <row r="512">
-      <c r="A512" s="11"/>
+      <c r="A512" s="12"/>
     </row>
     <row r="513">
-      <c r="A513" s="11"/>
+      <c r="A513" s="12"/>
     </row>
     <row r="514">
-      <c r="A514" s="11"/>
+      <c r="A514" s="12"/>
     </row>
     <row r="515">
-      <c r="A515" s="11"/>
+      <c r="A515" s="12"/>
     </row>
     <row r="516">
-      <c r="A516" s="11"/>
+      <c r="A516" s="12"/>
     </row>
     <row r="517">
-      <c r="A517" s="11"/>
+      <c r="A517" s="12"/>
     </row>
     <row r="518">
-      <c r="A518" s="11"/>
+      <c r="A518" s="12"/>
     </row>
     <row r="519">
-      <c r="A519" s="11"/>
+      <c r="A519" s="12"/>
     </row>
     <row r="520">
-      <c r="A520" s="11"/>
+      <c r="A520" s="12"/>
     </row>
     <row r="521">
-      <c r="A521" s="11"/>
+      <c r="A521" s="12"/>
     </row>
     <row r="522">
-      <c r="A522" s="11"/>
+      <c r="A522" s="12"/>
     </row>
     <row r="523">
-      <c r="A523" s="11"/>
+      <c r="A523" s="12"/>
     </row>
     <row r="524">
-      <c r="A524" s="11"/>
+      <c r="A524" s="12"/>
     </row>
     <row r="525">
-      <c r="A525" s="11"/>
+      <c r="A525" s="12"/>
     </row>
     <row r="526">
-      <c r="A526" s="11"/>
+      <c r="A526" s="12"/>
     </row>
     <row r="527">
-      <c r="A527" s="11"/>
+      <c r="A527" s="12"/>
     </row>
     <row r="528">
-      <c r="A528" s="11"/>
+      <c r="A528" s="12"/>
     </row>
     <row r="529">
-      <c r="A529" s="11"/>
+      <c r="A529" s="12"/>
     </row>
     <row r="530">
-      <c r="A530" s="11"/>
+      <c r="A530" s="12"/>
     </row>
     <row r="531">
-      <c r="A531" s="11"/>
+      <c r="A531" s="12"/>
     </row>
     <row r="532">
-      <c r="A532" s="11"/>
+      <c r="A532" s="12"/>
     </row>
     <row r="533">
-      <c r="A533" s="11"/>
+      <c r="A533" s="12"/>
     </row>
     <row r="534">
-      <c r="A534" s="11"/>
+      <c r="A534" s="12"/>
     </row>
     <row r="535">
-      <c r="A535" s="11"/>
+      <c r="A535" s="12"/>
     </row>
     <row r="536">
-      <c r="A536" s="11"/>
+      <c r="A536" s="12"/>
     </row>
     <row r="537">
-      <c r="A537" s="11"/>
+      <c r="A537" s="12"/>
     </row>
     <row r="538">
-      <c r="A538" s="11"/>
+      <c r="A538" s="12"/>
     </row>
     <row r="539">
-      <c r="A539" s="11"/>
+      <c r="A539" s="12"/>
     </row>
     <row r="540">
-      <c r="A540" s="11"/>
+      <c r="A540" s="12"/>
     </row>
     <row r="541">
-      <c r="A541" s="11"/>
+      <c r="A541" s="12"/>
     </row>
     <row r="542">
-      <c r="A542" s="11"/>
+      <c r="A542" s="12"/>
     </row>
     <row r="543">
-      <c r="A543" s="11"/>
+      <c r="A543" s="12"/>
     </row>
     <row r="544">
-      <c r="A544" s="11"/>
+      <c r="A544" s="12"/>
     </row>
     <row r="545">
-      <c r="A545" s="11"/>
+      <c r="A545" s="12"/>
     </row>
     <row r="546">
-      <c r="A546" s="11"/>
+      <c r="A546" s="12"/>
     </row>
     <row r="547">
-      <c r="A547" s="11"/>
+      <c r="A547" s="12"/>
     </row>
     <row r="548">
-      <c r="A548" s="11"/>
+      <c r="A548" s="12"/>
     </row>
     <row r="549">
-      <c r="A549" s="11"/>
+      <c r="A549" s="12"/>
     </row>
     <row r="550">
-      <c r="A550" s="11"/>
+      <c r="A550" s="12"/>
     </row>
     <row r="551">
-      <c r="A551" s="11"/>
+      <c r="A551" s="12"/>
     </row>
     <row r="552">
-      <c r="A552" s="11"/>
+      <c r="A552" s="12"/>
     </row>
     <row r="553">
-      <c r="A553" s="11"/>
+      <c r="A553" s="12"/>
     </row>
     <row r="554">
-      <c r="A554" s="11"/>
+      <c r="A554" s="12"/>
     </row>
     <row r="555">
-      <c r="A555" s="11"/>
+      <c r="A555" s="12"/>
     </row>
     <row r="556">
-      <c r="A556" s="11"/>
+      <c r="A556" s="12"/>
     </row>
     <row r="557">
-      <c r="A557" s="11"/>
+      <c r="A557" s="12"/>
     </row>
     <row r="558">
-      <c r="A558" s="11"/>
+      <c r="A558" s="12"/>
     </row>
     <row r="559">
-      <c r="A559" s="11"/>
+      <c r="A559" s="12"/>
     </row>
     <row r="560">
-      <c r="A560" s="11"/>
+      <c r="A560" s="12"/>
     </row>
     <row r="561">
-      <c r="A561" s="11"/>
+      <c r="A561" s="12"/>
     </row>
     <row r="562">
-      <c r="A562" s="11"/>
+      <c r="A562" s="12"/>
     </row>
     <row r="563">
-      <c r="A563" s="11"/>
+      <c r="A563" s="12"/>
     </row>
     <row r="564">
-      <c r="A564" s="11"/>
+      <c r="A564" s="12"/>
     </row>
     <row r="565">
-      <c r="A565" s="11"/>
+      <c r="A565" s="12"/>
     </row>
     <row r="566">
-      <c r="A566" s="11"/>
+      <c r="A566" s="12"/>
     </row>
     <row r="567">
-      <c r="A567" s="11"/>
+      <c r="A567" s="12"/>
     </row>
     <row r="568">
-      <c r="A568" s="11"/>
+      <c r="A568" s="12"/>
     </row>
     <row r="569">
-      <c r="A569" s="11"/>
+      <c r="A569" s="12"/>
     </row>
     <row r="570">
-      <c r="A570" s="11"/>
+      <c r="A570" s="12"/>
     </row>
     <row r="571">
-      <c r="A571" s="11"/>
+      <c r="A571" s="12"/>
     </row>
     <row r="572">
-      <c r="A572" s="11"/>
+      <c r="A572" s="12"/>
     </row>
     <row r="573">
-      <c r="A573" s="11"/>
+      <c r="A573" s="12"/>
     </row>
     <row r="574">
-      <c r="A574" s="11"/>
+      <c r="A574" s="12"/>
     </row>
     <row r="575">
-      <c r="A575" s="11"/>
+      <c r="A575" s="12"/>
     </row>
     <row r="576">
-      <c r="A576" s="11"/>
+      <c r="A576" s="12"/>
     </row>
     <row r="577">
-      <c r="A577" s="11"/>
+      <c r="A577" s="12"/>
     </row>
     <row r="578">
-      <c r="A578" s="11"/>
+      <c r="A578" s="12"/>
     </row>
     <row r="579">
-      <c r="A579" s="11"/>
+      <c r="A579" s="12"/>
     </row>
     <row r="580">
-      <c r="A580" s="11"/>
+      <c r="A580" s="12"/>
     </row>
     <row r="581">
-      <c r="A581" s="11"/>
+      <c r="A581" s="12"/>
     </row>
     <row r="582">
-      <c r="A582" s="11"/>
+      <c r="A582" s="12"/>
     </row>
     <row r="583">
-      <c r="A583" s="11"/>
+      <c r="A583" s="12"/>
     </row>
     <row r="584">
-      <c r="A584" s="11"/>
+      <c r="A584" s="12"/>
     </row>
     <row r="585">
-      <c r="A585" s="11"/>
+      <c r="A585" s="12"/>
     </row>
     <row r="586">
-      <c r="A586" s="11"/>
+      <c r="A586" s="12"/>
     </row>
     <row r="587">
-      <c r="A587" s="11"/>
+      <c r="A587" s="12"/>
     </row>
     <row r="588">
-      <c r="A588" s="11"/>
+      <c r="A588" s="12"/>
     </row>
     <row r="589">
-      <c r="A589" s="11"/>
+      <c r="A589" s="12"/>
     </row>
     <row r="590">
-      <c r="A590" s="11"/>
+      <c r="A590" s="12"/>
     </row>
     <row r="591">
-      <c r="A591" s="11"/>
+      <c r="A591" s="12"/>
     </row>
     <row r="592">
-      <c r="A592" s="11"/>
+      <c r="A592" s="12"/>
     </row>
     <row r="593">
-      <c r="A593" s="11"/>
+      <c r="A593" s="12"/>
     </row>
     <row r="594">
-      <c r="A594" s="11"/>
+      <c r="A594" s="12"/>
     </row>
     <row r="595">
-      <c r="A595" s="11"/>
+      <c r="A595" s="12"/>
     </row>
     <row r="596">
-      <c r="A596" s="11"/>
+      <c r="A596" s="12"/>
     </row>
     <row r="597">
-      <c r="A597" s="11"/>
+      <c r="A597" s="12"/>
     </row>
     <row r="598">
-      <c r="A598" s="11"/>
+      <c r="A598" s="12"/>
     </row>
     <row r="599">
-      <c r="A599" s="11"/>
+      <c r="A599" s="12"/>
     </row>
     <row r="600">
-      <c r="A600" s="11"/>
+      <c r="A600" s="12"/>
     </row>
     <row r="601">
-      <c r="A601" s="11"/>
+      <c r="A601" s="12"/>
     </row>
     <row r="602">
-      <c r="A602" s="11"/>
+      <c r="A602" s="12"/>
     </row>
     <row r="603">
-      <c r="A603" s="11"/>
+      <c r="A603" s="12"/>
     </row>
     <row r="604">
-      <c r="A604" s="11"/>
+      <c r="A604" s="12"/>
     </row>
     <row r="605">
-      <c r="A605" s="11"/>
+      <c r="A605" s="12"/>
     </row>
     <row r="606">
-      <c r="A606" s="11"/>
+      <c r="A606" s="12"/>
     </row>
     <row r="607">
-      <c r="A607" s="11"/>
+      <c r="A607" s="12"/>
     </row>
     <row r="608">
-      <c r="A608" s="11"/>
+      <c r="A608" s="12"/>
     </row>
     <row r="609">
-      <c r="A609" s="11"/>
+      <c r="A609" s="12"/>
     </row>
     <row r="610">
-      <c r="A610" s="11"/>
+      <c r="A610" s="12"/>
     </row>
     <row r="611">
-      <c r="A611" s="11"/>
+      <c r="A611" s="12"/>
     </row>
     <row r="612">
-      <c r="A612" s="11"/>
+      <c r="A612" s="12"/>
     </row>
     <row r="613">
-      <c r="A613" s="11"/>
+      <c r="A613" s="12"/>
     </row>
     <row r="614">
-      <c r="A614" s="11"/>
+      <c r="A614" s="12"/>
     </row>
     <row r="615">
-      <c r="A615" s="11"/>
+      <c r="A615" s="12"/>
     </row>
     <row r="616">
-      <c r="A616" s="11"/>
+      <c r="A616" s="12"/>
     </row>
     <row r="617">
-      <c r="A617" s="11"/>
+      <c r="A617" s="12"/>
     </row>
     <row r="618">
-      <c r="A618" s="11"/>
+      <c r="A618" s="12"/>
     </row>
     <row r="619">
-      <c r="A619" s="11"/>
+      <c r="A619" s="12"/>
     </row>
     <row r="620">
-      <c r="A620" s="11"/>
+      <c r="A620" s="12"/>
     </row>
     <row r="621">
-      <c r="A621" s="11"/>
+      <c r="A621" s="12"/>
     </row>
     <row r="622">
-      <c r="A622" s="11"/>
+      <c r="A622" s="12"/>
     </row>
     <row r="623">
-      <c r="A623" s="11"/>
+      <c r="A623" s="12"/>
     </row>
     <row r="624">
-      <c r="A624" s="11"/>
+      <c r="A624" s="12"/>
     </row>
     <row r="625">
-      <c r="A625" s="11"/>
+      <c r="A625" s="12"/>
     </row>
     <row r="626">
-      <c r="A626" s="11"/>
+      <c r="A626" s="12"/>
     </row>
     <row r="627">
-      <c r="A627" s="11"/>
+      <c r="A627" s="12"/>
     </row>
     <row r="628">
-      <c r="A628" s="11"/>
+      <c r="A628" s="12"/>
     </row>
     <row r="629">
-      <c r="A629" s="11"/>
+      <c r="A629" s="12"/>
     </row>
     <row r="630">
-      <c r="A630" s="11"/>
+      <c r="A630" s="12"/>
     </row>
     <row r="631">
-      <c r="A631" s="11"/>
+      <c r="A631" s="12"/>
     </row>
     <row r="632">
-      <c r="A632" s="11"/>
+      <c r="A632" s="12"/>
     </row>
     <row r="633">
-      <c r="A633" s="11"/>
+      <c r="A633" s="12"/>
     </row>
     <row r="634">
-      <c r="A634" s="11"/>
+      <c r="A634" s="12"/>
     </row>
     <row r="635">
-      <c r="A635" s="11"/>
+      <c r="A635" s="12"/>
     </row>
     <row r="636">
-      <c r="A636" s="11"/>
+      <c r="A636" s="12"/>
     </row>
     <row r="637">
-      <c r="A637" s="11"/>
+      <c r="A637" s="12"/>
     </row>
     <row r="638">
-      <c r="A638" s="11"/>
+      <c r="A638" s="12"/>
     </row>
     <row r="639">
-      <c r="A639" s="11"/>
+      <c r="A639" s="12"/>
     </row>
     <row r="640">
-      <c r="A640" s="11"/>
+      <c r="A640" s="12"/>
     </row>
     <row r="641">
-      <c r="A641" s="11"/>
+      <c r="A641" s="12"/>
     </row>
     <row r="642">
-      <c r="A642" s="11"/>
+      <c r="A642" s="12"/>
     </row>
     <row r="643">
-      <c r="A643" s="11"/>
+      <c r="A643" s="12"/>
     </row>
     <row r="644">
-      <c r="A644" s="11"/>
+      <c r="A644" s="12"/>
     </row>
     <row r="645">
-      <c r="A645" s="11"/>
+      <c r="A645" s="12"/>
     </row>
     <row r="646">
-      <c r="A646" s="11"/>
+      <c r="A646" s="12"/>
     </row>
     <row r="647">
-      <c r="A647" s="11"/>
+      <c r="A647" s="12"/>
     </row>
     <row r="648">
-      <c r="A648" s="11"/>
+      <c r="A648" s="12"/>
     </row>
     <row r="649">
-      <c r="A649" s="11"/>
+      <c r="A649" s="12"/>
     </row>
     <row r="650">
-      <c r="A650" s="11"/>
+      <c r="A650" s="12"/>
     </row>
     <row r="651">
-      <c r="A651" s="11"/>
+      <c r="A651" s="12"/>
     </row>
     <row r="652">
-      <c r="A652" s="11"/>
+      <c r="A652" s="12"/>
     </row>
     <row r="653">
-      <c r="A653" s="11"/>
+      <c r="A653" s="12"/>
     </row>
     <row r="654">
-      <c r="A654" s="11"/>
+      <c r="A654" s="12"/>
     </row>
     <row r="655">
-      <c r="A655" s="11"/>
+      <c r="A655" s="12"/>
     </row>
     <row r="656">
-      <c r="A656" s="11"/>
+      <c r="A656" s="12"/>
     </row>
     <row r="657">
-      <c r="A657" s="11"/>
+      <c r="A657" s="12"/>
     </row>
     <row r="658">
-      <c r="A658" s="11"/>
+      <c r="A658" s="12"/>
     </row>
     <row r="659">
-      <c r="A659" s="11"/>
+      <c r="A659" s="12"/>
     </row>
     <row r="660">
-      <c r="A660" s="11"/>
+      <c r="A660" s="12"/>
     </row>
     <row r="661">
-      <c r="A661" s="11"/>
+      <c r="A661" s="12"/>
     </row>
     <row r="662">
-      <c r="A662" s="11"/>
+      <c r="A662" s="12"/>
     </row>
     <row r="663">
-      <c r="A663" s="11"/>
+      <c r="A663" s="12"/>
     </row>
     <row r="664">
-      <c r="A664" s="11"/>
+      <c r="A664" s="12"/>
     </row>
     <row r="665">
-      <c r="A665" s="11"/>
+      <c r="A665" s="12"/>
     </row>
     <row r="666">
-      <c r="A666" s="11"/>
+      <c r="A666" s="12"/>
     </row>
     <row r="667">
-      <c r="A667" s="11"/>
+      <c r="A667" s="12"/>
     </row>
     <row r="668">
-      <c r="A668" s="11"/>
+      <c r="A668" s="12"/>
     </row>
     <row r="669">
-      <c r="A669" s="11"/>
+      <c r="A669" s="12"/>
     </row>
     <row r="670">
-      <c r="A670" s="11"/>
+      <c r="A670" s="12"/>
     </row>
     <row r="671">
-      <c r="A671" s="11"/>
+      <c r="A671" s="12"/>
     </row>
     <row r="672">
-      <c r="A672" s="11"/>
+      <c r="A672" s="12"/>
     </row>
     <row r="673">
-      <c r="A673" s="11"/>
+      <c r="A673" s="12"/>
     </row>
     <row r="674">
-      <c r="A674" s="11"/>
+      <c r="A674" s="12"/>
     </row>
     <row r="675">
-      <c r="A675" s="11"/>
+      <c r="A675" s="12"/>
     </row>
     <row r="676">
-      <c r="A676" s="11"/>
+      <c r="A676" s="12"/>
     </row>
     <row r="677">
-      <c r="A677" s="11"/>
+      <c r="A677" s="12"/>
     </row>
     <row r="678">
-      <c r="A678" s="11"/>
+      <c r="A678" s="12"/>
     </row>
     <row r="679">
-      <c r="A679" s="11"/>
+      <c r="A679" s="12"/>
     </row>
     <row r="680">
-      <c r="A680" s="11"/>
+      <c r="A680" s="12"/>
     </row>
     <row r="681">
-      <c r="A681" s="11"/>
+      <c r="A681" s="12"/>
     </row>
     <row r="682">
-      <c r="A682" s="11"/>
+      <c r="A682" s="12"/>
     </row>
     <row r="683">
-      <c r="A683" s="11"/>
+      <c r="A683" s="12"/>
     </row>
     <row r="684">
-      <c r="A684" s="11"/>
+      <c r="A684" s="12"/>
     </row>
     <row r="685">
-      <c r="A685" s="11"/>
+      <c r="A685" s="12"/>
     </row>
     <row r="686">
-      <c r="A686" s="11"/>
+      <c r="A686" s="12"/>
     </row>
     <row r="687">
-      <c r="A687" s="11"/>
+      <c r="A687" s="12"/>
     </row>
     <row r="688">
-      <c r="A688" s="11"/>
+      <c r="A688" s="12"/>
     </row>
     <row r="689">
-      <c r="A689" s="11"/>
+      <c r="A689" s="12"/>
     </row>
     <row r="690">
-      <c r="A690" s="11"/>
+      <c r="A690" s="12"/>
     </row>
     <row r="691">
-      <c r="A691" s="11"/>
+      <c r="A691" s="12"/>
     </row>
     <row r="692">
-      <c r="A692" s="11"/>
+      <c r="A692" s="12"/>
     </row>
     <row r="693">
-      <c r="A693" s="11"/>
+      <c r="A693" s="12"/>
     </row>
     <row r="694">
-      <c r="A694" s="11"/>
+      <c r="A694" s="12"/>
     </row>
     <row r="695">
-      <c r="A695" s="11"/>
+      <c r="A695" s="12"/>
     </row>
     <row r="696">
-      <c r="A696" s="11"/>
+      <c r="A696" s="12"/>
     </row>
     <row r="697">
-      <c r="A697" s="11"/>
+      <c r="A697" s="12"/>
     </row>
     <row r="698">
-      <c r="A698" s="11"/>
+      <c r="A698" s="12"/>
     </row>
     <row r="699">
-      <c r="A699" s="11"/>
+      <c r="A699" s="12"/>
     </row>
     <row r="700">
-      <c r="A700" s="11"/>
+      <c r="A700" s="12"/>
     </row>
     <row r="701">
-      <c r="A701" s="11"/>
+      <c r="A701" s="12"/>
     </row>
     <row r="702">
-      <c r="A702" s="11"/>
+      <c r="A702" s="12"/>
     </row>
     <row r="703">
-      <c r="A703" s="11"/>
+      <c r="A703" s="12"/>
     </row>
     <row r="704">
-      <c r="A704" s="11"/>
+      <c r="A704" s="12"/>
     </row>
     <row r="705">
-      <c r="A705" s="11"/>
+      <c r="A705" s="12"/>
     </row>
     <row r="706">
-      <c r="A706" s="11"/>
+      <c r="A706" s="12"/>
     </row>
     <row r="707">
-      <c r="A707" s="11"/>
+      <c r="A707" s="12"/>
     </row>
     <row r="708">
-      <c r="A708" s="11"/>
+      <c r="A708" s="12"/>
     </row>
     <row r="709">
-      <c r="A709" s="11"/>
+      <c r="A709" s="12"/>
     </row>
     <row r="710">
-      <c r="A710" s="11"/>
+      <c r="A710" s="12"/>
     </row>
     <row r="711">
-      <c r="A711" s="11"/>
+      <c r="A711" s="12"/>
     </row>
     <row r="712">
-      <c r="A712" s="11"/>
+      <c r="A712" s="12"/>
     </row>
     <row r="713">
-      <c r="A713" s="11"/>
+      <c r="A713" s="12"/>
     </row>
     <row r="714">
-      <c r="A714" s="11"/>
+      <c r="A714" s="12"/>
     </row>
     <row r="715">
-      <c r="A715" s="11"/>
+      <c r="A715" s="12"/>
     </row>
     <row r="716">
-      <c r="A716" s="11"/>
+      <c r="A716" s="12"/>
     </row>
     <row r="717">
-      <c r="A717" s="11"/>
+      <c r="A717" s="12"/>
     </row>
     <row r="718">
-      <c r="A718" s="11"/>
+      <c r="A718" s="12"/>
     </row>
     <row r="719">
-      <c r="A719" s="11"/>
+      <c r="A719" s="12"/>
     </row>
     <row r="720">
-      <c r="A720" s="11"/>
+      <c r="A720" s="12"/>
     </row>
     <row r="721">
-      <c r="A721" s="11"/>
+      <c r="A721" s="12"/>
     </row>
     <row r="722">
-      <c r="A722" s="11"/>
+      <c r="A722" s="12"/>
     </row>
     <row r="723">
-      <c r="A723" s="11"/>
+      <c r="A723" s="12"/>
     </row>
     <row r="724">
-      <c r="A724" s="11"/>
+      <c r="A724" s="12"/>
     </row>
     <row r="725">
-      <c r="A725" s="11"/>
+      <c r="A725" s="12"/>
     </row>
     <row r="726">
-      <c r="A726" s="11"/>
+      <c r="A726" s="12"/>
     </row>
     <row r="727">
-      <c r="A727" s="11"/>
+      <c r="A727" s="12"/>
     </row>
     <row r="728">
-      <c r="A728" s="11"/>
+      <c r="A728" s="12"/>
     </row>
     <row r="729">
-      <c r="A729" s="11"/>
+      <c r="A729" s="12"/>
     </row>
     <row r="730">
-      <c r="A730" s="11"/>
+      <c r="A730" s="12"/>
     </row>
     <row r="731">
-      <c r="A731" s="11"/>
+      <c r="A731" s="12"/>
     </row>
     <row r="732">
-      <c r="A732" s="11"/>
+      <c r="A732" s="12"/>
     </row>
     <row r="733">
-      <c r="A733" s="11"/>
+      <c r="A733" s="12"/>
     </row>
     <row r="734">
-      <c r="A734" s="11"/>
+      <c r="A734" s="12"/>
     </row>
     <row r="735">
-      <c r="A735" s="11"/>
+      <c r="A735" s="12"/>
     </row>
     <row r="736">
-      <c r="A736" s="11"/>
+      <c r="A736" s="12"/>
     </row>
     <row r="737">
-      <c r="A737" s="11"/>
+      <c r="A737" s="12"/>
     </row>
     <row r="738">
-      <c r="A738" s="11"/>
+      <c r="A738" s="12"/>
     </row>
     <row r="739">
-      <c r="A739" s="11"/>
+      <c r="A739" s="12"/>
     </row>
     <row r="740">
-      <c r="A740" s="11"/>
+      <c r="A740" s="12"/>
     </row>
     <row r="741">
-      <c r="A741" s="11"/>
+      <c r="A741" s="12"/>
     </row>
     <row r="742">
-      <c r="A742" s="11"/>
+      <c r="A742" s="12"/>
     </row>
     <row r="743">
-      <c r="A743" s="11"/>
+      <c r="A743" s="12"/>
     </row>
     <row r="744">
-      <c r="A744" s="11"/>
+      <c r="A744" s="12"/>
     </row>
     <row r="745">
-      <c r="A745" s="11"/>
+      <c r="A745" s="12"/>
     </row>
     <row r="746">
-      <c r="A746" s="11"/>
+      <c r="A746" s="12"/>
     </row>
     <row r="747">
-      <c r="A747" s="11"/>
+      <c r="A747" s="12"/>
     </row>
     <row r="748">
-      <c r="A748" s="11"/>
+      <c r="A748" s="12"/>
     </row>
     <row r="749">
-      <c r="A749" s="11"/>
+      <c r="A749" s="12"/>
     </row>
     <row r="750">
-      <c r="A750" s="11"/>
+      <c r="A750" s="12"/>
     </row>
     <row r="751">
-      <c r="A751" s="11"/>
+      <c r="A751" s="12"/>
     </row>
     <row r="752">
-      <c r="A752" s="11"/>
+      <c r="A752" s="12"/>
     </row>
     <row r="753">
-      <c r="A753" s="11"/>
+      <c r="A753" s="12"/>
     </row>
     <row r="754">
-      <c r="A754" s="11"/>
+      <c r="A754" s="12"/>
     </row>
     <row r="755">
-      <c r="A755" s="11"/>
+      <c r="A755" s="12"/>
     </row>
     <row r="756">
-      <c r="A756" s="11"/>
+      <c r="A756" s="12"/>
     </row>
     <row r="757">
-      <c r="A757" s="11"/>
+      <c r="A757" s="12"/>
     </row>
     <row r="758">
-      <c r="A758" s="11"/>
+      <c r="A758" s="12"/>
     </row>
     <row r="759">
-      <c r="A759" s="11"/>
+      <c r="A759" s="12"/>
     </row>
     <row r="760">
-      <c r="A760" s="11"/>
+      <c r="A760" s="12"/>
     </row>
     <row r="761">
-      <c r="A761" s="11"/>
+      <c r="A761" s="12"/>
     </row>
     <row r="762">
-      <c r="A762" s="11"/>
+      <c r="A762" s="12"/>
     </row>
     <row r="763">
-      <c r="A763" s="11"/>
+      <c r="A763" s="12"/>
     </row>
     <row r="764">
-      <c r="A764" s="11"/>
+      <c r="A764" s="12"/>
     </row>
     <row r="765">
-      <c r="A765" s="11"/>
+      <c r="A765" s="12"/>
     </row>
     <row r="766">
-      <c r="A766" s="11"/>
+      <c r="A766" s="12"/>
     </row>
     <row r="767">
-      <c r="A767" s="11"/>
+      <c r="A767" s="12"/>
     </row>
     <row r="768">
-      <c r="A768" s="11"/>
+      <c r="A768" s="12"/>
     </row>
     <row r="769">
-      <c r="A769" s="11"/>
+      <c r="A769" s="12"/>
     </row>
     <row r="770">
-      <c r="A770" s="11"/>
+      <c r="A770" s="12"/>
     </row>
     <row r="771">
-      <c r="A771" s="11"/>
+      <c r="A771" s="12"/>
     </row>
     <row r="772">
-      <c r="A772" s="11"/>
+      <c r="A772" s="12"/>
     </row>
     <row r="773">
-      <c r="A773" s="11"/>
+      <c r="A773" s="12"/>
     </row>
     <row r="774">
-      <c r="A774" s="11"/>
+      <c r="A774" s="12"/>
     </row>
     <row r="775">
-      <c r="A775" s="11"/>
+      <c r="A775" s="12"/>
     </row>
     <row r="776">
-      <c r="A776" s="11"/>
+      <c r="A776" s="12"/>
     </row>
     <row r="777">
-      <c r="A777" s="11"/>
+      <c r="A777" s="12"/>
     </row>
     <row r="778">
-      <c r="A778" s="11"/>
+      <c r="A778" s="12"/>
     </row>
     <row r="779">
-      <c r="A779" s="11"/>
+      <c r="A779" s="12"/>
     </row>
     <row r="780">
-      <c r="A780" s="11"/>
+      <c r="A780" s="12"/>
     </row>
     <row r="781">
-      <c r="A781" s="11"/>
+      <c r="A781" s="12"/>
     </row>
     <row r="782">
-      <c r="A782" s="11"/>
+      <c r="A782" s="12"/>
     </row>
     <row r="783">
-      <c r="A783" s="11"/>
+      <c r="A783" s="12"/>
     </row>
     <row r="784">
-      <c r="A784" s="11"/>
+      <c r="A784" s="12"/>
     </row>
     <row r="785">
-      <c r="A785" s="11"/>
+      <c r="A785" s="12"/>
     </row>
     <row r="786">
-      <c r="A786" s="11"/>
+      <c r="A786" s="12"/>
     </row>
     <row r="787">
-      <c r="A787" s="11"/>
+      <c r="A787" s="12"/>
     </row>
     <row r="788">
-      <c r="A788" s="11"/>
+      <c r="A788" s="12"/>
     </row>
     <row r="789">
-      <c r="A789" s="11"/>
+      <c r="A789" s="12"/>
     </row>
     <row r="790">
-      <c r="A790" s="11"/>
+      <c r="A790" s="12"/>
     </row>
     <row r="791">
-      <c r="A791" s="11"/>
+      <c r="A791" s="12"/>
     </row>
     <row r="792">
-      <c r="A792" s="11"/>
+      <c r="A792" s="12"/>
     </row>
     <row r="793">
-      <c r="A793" s="11"/>
+      <c r="A793" s="12"/>
     </row>
     <row r="794">
-      <c r="A794" s="11"/>
+      <c r="A794" s="12"/>
     </row>
     <row r="795">
-      <c r="A795" s="11"/>
+      <c r="A795" s="12"/>
     </row>
     <row r="796">
-      <c r="A796" s="11"/>
+      <c r="A796" s="12"/>
     </row>
     <row r="797">
-      <c r="A797" s="11"/>
+      <c r="A797" s="12"/>
     </row>
     <row r="798">
-      <c r="A798" s="11"/>
+      <c r="A798" s="12"/>
     </row>
     <row r="799">
-      <c r="A799" s="11"/>
+      <c r="A799" s="12"/>
     </row>
     <row r="800">
-      <c r="A800" s="11"/>
+      <c r="A800" s="12"/>
     </row>
     <row r="801">
-      <c r="A801" s="11"/>
+      <c r="A801" s="12"/>
     </row>
     <row r="802">
-      <c r="A802" s="11"/>
+      <c r="A802" s="12"/>
     </row>
     <row r="803">
-      <c r="A803" s="11"/>
+      <c r="A803" s="12"/>
     </row>
     <row r="804">
-      <c r="A804" s="11"/>
+      <c r="A804" s="12"/>
     </row>
     <row r="805">
-      <c r="A805" s="11"/>
+      <c r="A805" s="12"/>
     </row>
     <row r="806">
-      <c r="A806" s="11"/>
+      <c r="A806" s="12"/>
     </row>
     <row r="807">
-      <c r="A807" s="11"/>
+      <c r="A807" s="12"/>
     </row>
     <row r="808">
-      <c r="A808" s="11"/>
+      <c r="A808" s="12"/>
     </row>
     <row r="809">
-      <c r="A809" s="11"/>
+      <c r="A809" s="12"/>
     </row>
     <row r="810">
-      <c r="A810" s="11"/>
+      <c r="A810" s="12"/>
     </row>
     <row r="811">
-      <c r="A811" s="11"/>
+      <c r="A811" s="12"/>
     </row>
     <row r="812">
-      <c r="A812" s="11"/>
+      <c r="A812" s="12"/>
     </row>
     <row r="813">
-      <c r="A813" s="11"/>
+      <c r="A813" s="12"/>
     </row>
     <row r="814">
-      <c r="A814" s="11"/>
+      <c r="A814" s="12"/>
     </row>
     <row r="815">
-      <c r="A815" s="11"/>
+      <c r="A815" s="12"/>
     </row>
     <row r="816">
-      <c r="A816" s="11"/>
+      <c r="A816" s="12"/>
     </row>
     <row r="817">
-      <c r="A817" s="11"/>
+      <c r="A817" s="12"/>
     </row>
     <row r="818">
-      <c r="A818" s="11"/>
+      <c r="A818" s="12"/>
     </row>
     <row r="819">
-      <c r="A819" s="11"/>
+      <c r="A819" s="12"/>
     </row>
     <row r="820">
-      <c r="A820" s="11"/>
+      <c r="A820" s="12"/>
     </row>
     <row r="821">
-      <c r="A821" s="11"/>
+      <c r="A821" s="12"/>
     </row>
     <row r="822">
-      <c r="A822" s="11"/>
+      <c r="A822" s="12"/>
     </row>
     <row r="823">
-      <c r="A823" s="11"/>
+      <c r="A823" s="12"/>
     </row>
     <row r="824">
-      <c r="A824" s="11"/>
+      <c r="A824" s="12"/>
     </row>
     <row r="825">
-      <c r="A825" s="11"/>
+      <c r="A825" s="12"/>
     </row>
     <row r="826">
-      <c r="A826" s="11"/>
+      <c r="A826" s="12"/>
     </row>
     <row r="827">
-      <c r="A827" s="11"/>
+      <c r="A827" s="12"/>
     </row>
     <row r="828">
-      <c r="A828" s="11"/>
+      <c r="A828" s="12"/>
     </row>
     <row r="829">
-      <c r="A829" s="11"/>
+      <c r="A829" s="12"/>
     </row>
     <row r="830">
-      <c r="A830" s="11"/>
+      <c r="A830" s="12"/>
     </row>
     <row r="831">
-      <c r="A831" s="11"/>
+      <c r="A831" s="12"/>
     </row>
     <row r="832">
-      <c r="A832" s="11"/>
+      <c r="A832" s="12"/>
     </row>
     <row r="833">
-      <c r="A833" s="11"/>
+      <c r="A833" s="12"/>
     </row>
     <row r="834">
-      <c r="A834" s="11"/>
+      <c r="A834" s="12"/>
     </row>
     <row r="835">
-      <c r="A835" s="11"/>
+      <c r="A835" s="12"/>
     </row>
     <row r="836">
-      <c r="A836" s="11"/>
+      <c r="A836" s="12"/>
     </row>
     <row r="837">
-      <c r="A837" s="11"/>
+      <c r="A837" s="12"/>
     </row>
     <row r="838">
-      <c r="A838" s="11"/>
+      <c r="A838" s="12"/>
     </row>
     <row r="839">
-      <c r="A839" s="11"/>
+      <c r="A839" s="12"/>
     </row>
     <row r="840">
-      <c r="A840" s="11"/>
+      <c r="A840" s="12"/>
     </row>
     <row r="841">
-      <c r="A841" s="11"/>
+      <c r="A841" s="12"/>
     </row>
     <row r="842">
-      <c r="A842" s="11"/>
+      <c r="A842" s="12"/>
     </row>
     <row r="843">
-      <c r="A843" s="11"/>
+      <c r="A843" s="12"/>
     </row>
     <row r="844">
-      <c r="A844" s="11"/>
+      <c r="A844" s="12"/>
     </row>
     <row r="845">
-      <c r="A845" s="11"/>
+      <c r="A845" s="12"/>
     </row>
     <row r="846">
-      <c r="A846" s="11"/>
+      <c r="A846" s="12"/>
     </row>
     <row r="847">
-      <c r="A847" s="11"/>
+      <c r="A847" s="12"/>
     </row>
     <row r="848">
-      <c r="A848" s="11"/>
+      <c r="A848" s="12"/>
     </row>
     <row r="849">
-      <c r="A849" s="11"/>
+      <c r="A849" s="12"/>
     </row>
     <row r="850">
-      <c r="A850" s="11"/>
+      <c r="A850" s="12"/>
     </row>
     <row r="851">
-      <c r="A851" s="11"/>
+      <c r="A851" s="12"/>
     </row>
     <row r="852">
-      <c r="A852" s="11"/>
+      <c r="A852" s="12"/>
     </row>
     <row r="853">
-      <c r="A853" s="11"/>
+      <c r="A853" s="12"/>
     </row>
     <row r="854">
-      <c r="A854" s="11"/>
+      <c r="A854" s="12"/>
     </row>
     <row r="855">
-      <c r="A855" s="11"/>
+      <c r="A855" s="12"/>
     </row>
     <row r="856">
-      <c r="A856" s="11"/>
+      <c r="A856" s="12"/>
     </row>
     <row r="857">
-      <c r="A857" s="11"/>
+      <c r="A857" s="12"/>
     </row>
     <row r="858">
-      <c r="A858" s="11"/>
+      <c r="A858" s="12"/>
     </row>
     <row r="859">
-      <c r="A859" s="11"/>
+      <c r="A859" s="12"/>
     </row>
     <row r="860">
-      <c r="A860" s="11"/>
+      <c r="A860" s="12"/>
     </row>
     <row r="861">
-      <c r="A861" s="11"/>
+      <c r="A861" s="12"/>
     </row>
     <row r="862">
-      <c r="A862" s="11"/>
+      <c r="A862" s="12"/>
     </row>
     <row r="863">
-      <c r="A863" s="11"/>
+      <c r="A863" s="12"/>
     </row>
     <row r="864">
-      <c r="A864" s="11"/>
+      <c r="A864" s="12"/>
     </row>
     <row r="865">
-      <c r="A865" s="11"/>
+      <c r="A865" s="12"/>
     </row>
     <row r="866">
-      <c r="A866" s="11"/>
+      <c r="A866" s="12"/>
     </row>
     <row r="867">
-      <c r="A867" s="11"/>
+      <c r="A867" s="12"/>
     </row>
     <row r="868">
-      <c r="A868" s="11"/>
+      <c r="A868" s="12"/>
     </row>
     <row r="869">
-      <c r="A869" s="11"/>
+      <c r="A869" s="12"/>
     </row>
     <row r="870">
-      <c r="A870" s="11"/>
+      <c r="A870" s="12"/>
     </row>
     <row r="871">
-      <c r="A871" s="11"/>
+      <c r="A871" s="12"/>
     </row>
     <row r="872">
-      <c r="A872" s="11"/>
+      <c r="A872" s="12"/>
     </row>
     <row r="873">
-      <c r="A873" s="11"/>
+      <c r="A873" s="12"/>
     </row>
     <row r="874">
-      <c r="A874" s="11"/>
+      <c r="A874" s="12"/>
     </row>
     <row r="875">
-      <c r="A875" s="11"/>
+      <c r="A875" s="12"/>
     </row>
     <row r="876">
-      <c r="A876" s="11"/>
+      <c r="A876" s="12"/>
     </row>
     <row r="877">
-      <c r="A877" s="11"/>
+      <c r="A877" s="12"/>
     </row>
     <row r="878">
-      <c r="A878" s="11"/>
+      <c r="A878" s="12"/>
     </row>
     <row r="879">
-      <c r="A879" s="11"/>
+      <c r="A879" s="12"/>
     </row>
     <row r="880">
-      <c r="A880" s="11"/>
+      <c r="A880" s="12"/>
     </row>
     <row r="881">
-      <c r="A881" s="11"/>
+      <c r="A881" s="12"/>
     </row>
     <row r="882">
-      <c r="A882" s="11"/>
+      <c r="A882" s="12"/>
     </row>
     <row r="883">
-      <c r="A883" s="11"/>
+      <c r="A883" s="12"/>
     </row>
     <row r="884">
-      <c r="A884" s="11"/>
+      <c r="A884" s="12"/>
     </row>
     <row r="885">
-      <c r="A885" s="11"/>
+      <c r="A885" s="12"/>
     </row>
     <row r="886">
-      <c r="A886" s="11"/>
+      <c r="A886" s="12"/>
     </row>
     <row r="887">
-      <c r="A887" s="11"/>
+      <c r="A887" s="12"/>
     </row>
     <row r="888">
-      <c r="A888" s="11"/>
+      <c r="A888" s="12"/>
     </row>
     <row r="889">
-      <c r="A889" s="11"/>
+      <c r="A889" s="12"/>
     </row>
     <row r="890">
-      <c r="A890" s="11"/>
+      <c r="A890" s="12"/>
     </row>
     <row r="891">
-      <c r="A891" s="11"/>
+      <c r="A891" s="12"/>
     </row>
     <row r="892">
-      <c r="A892" s="11"/>
+      <c r="A892" s="12"/>
     </row>
     <row r="893">
-      <c r="A893" s="11"/>
+      <c r="A893" s="12"/>
     </row>
     <row r="894">
-      <c r="A894" s="11"/>
+      <c r="A894" s="12"/>
     </row>
     <row r="895">
-      <c r="A895" s="11"/>
+      <c r="A895" s="12"/>
     </row>
     <row r="896">
-      <c r="A896" s="11"/>
+      <c r="A896" s="12"/>
     </row>
     <row r="897">
-      <c r="A897" s="11"/>
+      <c r="A897" s="12"/>
     </row>
     <row r="898">
-      <c r="A898" s="11"/>
+      <c r="A898" s="12"/>
     </row>
     <row r="899">
-      <c r="A899" s="11"/>
+      <c r="A899" s="12"/>
     </row>
     <row r="900">
-      <c r="A900" s="11"/>
+      <c r="A900" s="12"/>
     </row>
     <row r="901">
-      <c r="A901" s="11"/>
+      <c r="A901" s="12"/>
     </row>
     <row r="902">
-      <c r="A902" s="11"/>
+      <c r="A902" s="12"/>
     </row>
     <row r="903">
-      <c r="A903" s="11"/>
+      <c r="A903" s="12"/>
     </row>
     <row r="904">
-      <c r="A904" s="11"/>
+      <c r="A904" s="12"/>
     </row>
     <row r="905">
-      <c r="A905" s="11"/>
+      <c r="A905" s="12"/>
     </row>
     <row r="906">
-      <c r="A906" s="11"/>
+      <c r="A906" s="12"/>
     </row>
     <row r="907">
-      <c r="A907" s="11"/>
+      <c r="A907" s="12"/>
     </row>
     <row r="908">
-      <c r="A908" s="11"/>
+      <c r="A908" s="12"/>
     </row>
     <row r="909">
-      <c r="A909" s="11"/>
+      <c r="A909" s="12"/>
     </row>
     <row r="910">
-      <c r="A910" s="11"/>
+      <c r="A910" s="12"/>
     </row>
     <row r="911">
-      <c r="A911" s="11"/>
+      <c r="A911" s="12"/>
     </row>
     <row r="912">
-      <c r="A912" s="11"/>
+      <c r="A912" s="12"/>
     </row>
     <row r="913">
-      <c r="A913" s="11"/>
+      <c r="A913" s="12"/>
     </row>
     <row r="914">
-      <c r="A914" s="11"/>
+      <c r="A914" s="12"/>
     </row>
     <row r="915">
-      <c r="A915" s="11"/>
+      <c r="A915" s="12"/>
     </row>
     <row r="916">
-      <c r="A916" s="11"/>
+      <c r="A916" s="12"/>
     </row>
     <row r="917">
-      <c r="A917" s="11"/>
+      <c r="A917" s="12"/>
     </row>
     <row r="918">
-      <c r="A918" s="11"/>
+      <c r="A918" s="12"/>
     </row>
     <row r="919">
-      <c r="A919" s="11"/>
+      <c r="A919" s="12"/>
     </row>
     <row r="920">
-      <c r="A920" s="11"/>
+      <c r="A920" s="12"/>
     </row>
     <row r="921">
-      <c r="A921" s="11"/>
+      <c r="A921" s="12"/>
     </row>
     <row r="922">
-      <c r="A922" s="11"/>
+      <c r="A922" s="12"/>
     </row>
     <row r="923">
-      <c r="A923" s="11"/>
+      <c r="A923" s="12"/>
     </row>
     <row r="924">
-      <c r="A924" s="11"/>
+      <c r="A924" s="12"/>
     </row>
     <row r="925">
-      <c r="A925" s="11"/>
+      <c r="A925" s="12"/>
     </row>
     <row r="926">
-      <c r="A926" s="11"/>
+      <c r="A926" s="12"/>
     </row>
     <row r="927">
-      <c r="A927" s="11"/>
+      <c r="A927" s="12"/>
     </row>
     <row r="928">
-      <c r="A928" s="11"/>
+      <c r="A928" s="12"/>
     </row>
     <row r="929">
-      <c r="A929" s="11"/>
+      <c r="A929" s="12"/>
     </row>
     <row r="930">
-      <c r="A930" s="11"/>
+      <c r="A930" s="12"/>
     </row>
     <row r="931">
-      <c r="A931" s="11"/>
+      <c r="A931" s="12"/>
     </row>
     <row r="932">
-      <c r="A932" s="11"/>
+      <c r="A932" s="12"/>
     </row>
     <row r="933">
-      <c r="A933" s="11"/>
+      <c r="A933" s="12"/>
     </row>
     <row r="934">
-      <c r="A934" s="11"/>
+      <c r="A934" s="12"/>
     </row>
     <row r="935">
-      <c r="A935" s="11"/>
+      <c r="A935" s="12"/>
     </row>
     <row r="936">
-      <c r="A936" s="11"/>
+      <c r="A936" s="12"/>
     </row>
     <row r="937">
-      <c r="A937" s="11"/>
+      <c r="A937" s="12"/>
     </row>
     <row r="938">
-      <c r="A938" s="11"/>
+      <c r="A938" s="12"/>
     </row>
     <row r="939">
-      <c r="A939" s="11"/>
+      <c r="A939" s="12"/>
     </row>
     <row r="940">
-      <c r="A940" s="11"/>
+      <c r="A940" s="12"/>
     </row>
     <row r="941">
-      <c r="A941" s="11"/>
+      <c r="A941" s="12"/>
     </row>
     <row r="942">
-      <c r="A942" s="11"/>
+      <c r="A942" s="12"/>
     </row>
     <row r="943">
-      <c r="A943" s="11"/>
+      <c r="A943" s="12"/>
     </row>
     <row r="944">
-      <c r="A944" s="11"/>
+      <c r="A944" s="12"/>
     </row>
     <row r="945">
-      <c r="A945" s="11"/>
+      <c r="A945" s="12"/>
     </row>
     <row r="946">
-      <c r="A946" s="11"/>
+      <c r="A946" s="12"/>
     </row>
     <row r="947">
-      <c r="A947" s="11"/>
+      <c r="A947" s="12"/>
     </row>
     <row r="948">
-      <c r="A948" s="11"/>
+      <c r="A948" s="12"/>
     </row>
     <row r="949">
-      <c r="A949" s="11"/>
+      <c r="A949" s="12"/>
     </row>
     <row r="950">
-      <c r="A950" s="11"/>
+      <c r="A950" s="12"/>
     </row>
     <row r="951">
-      <c r="A951" s="11"/>
+      <c r="A951" s="12"/>
     </row>
     <row r="952">
-      <c r="A952" s="11"/>
+      <c r="A952" s="12"/>
     </row>
     <row r="953">
-      <c r="A953" s="11"/>
+      <c r="A953" s="12"/>
     </row>
     <row r="954">
-      <c r="A954" s="11"/>
+      <c r="A954" s="12"/>
     </row>
     <row r="955">
-      <c r="A955" s="11"/>
+      <c r="A955" s="12"/>
     </row>
     <row r="956">
-      <c r="A956" s="11"/>
+      <c r="A956" s="12"/>
     </row>
     <row r="957">
-      <c r="A957" s="11"/>
+      <c r="A957" s="12"/>
     </row>
     <row r="958">
-      <c r="A958" s="11"/>
+      <c r="A958" s="12"/>
     </row>
     <row r="959">
-      <c r="A959" s="11"/>
+      <c r="A959" s="12"/>
     </row>
     <row r="960">
-      <c r="A960" s="11"/>
+      <c r="A960" s="12"/>
     </row>
     <row r="961">
-      <c r="A961" s="11"/>
+      <c r="A961" s="12"/>
     </row>
     <row r="962">
-      <c r="A962" s="11"/>
+      <c r="A962" s="12"/>
     </row>
     <row r="963">
-      <c r="A963" s="11"/>
+      <c r="A963" s="12"/>
     </row>
     <row r="964">
-      <c r="A964" s="11"/>
+      <c r="A964" s="12"/>
     </row>
     <row r="965">
-      <c r="A965" s="11"/>
+      <c r="A965" s="12"/>
     </row>
     <row r="966">
-      <c r="A966" s="11"/>
+      <c r="A966" s="12"/>
     </row>
     <row r="967">
-      <c r="A967" s="11"/>
+      <c r="A967" s="12"/>
     </row>
     <row r="968">
-      <c r="A968" s="11"/>
+      <c r="A968" s="12"/>
     </row>
     <row r="969">
-      <c r="A969" s="11"/>
+      <c r="A969" s="12"/>
     </row>
     <row r="970">
-      <c r="A970" s="11"/>
+      <c r="A970" s="12"/>
     </row>
     <row r="971">
-      <c r="A971" s="11"/>
+      <c r="A971" s="12"/>
     </row>
     <row r="972">
-      <c r="A972" s="11"/>
+      <c r="A972" s="12"/>
     </row>
     <row r="973">
-      <c r="A973" s="11"/>
+      <c r="A973" s="12"/>
     </row>
     <row r="974">
-      <c r="A974" s="11"/>
+      <c r="A974" s="12"/>
     </row>
     <row r="975">
-      <c r="A975" s="11"/>
+      <c r="A975" s="12"/>
     </row>
     <row r="976">
-      <c r="A976" s="11"/>
+      <c r="A976" s="12"/>
     </row>
     <row r="977">
-      <c r="A977" s="11"/>
+      <c r="A977" s="12"/>
     </row>
     <row r="978">
-      <c r="A978" s="11"/>
+      <c r="A978" s="12"/>
     </row>
     <row r="979">
-      <c r="A979" s="11"/>
+      <c r="A979" s="12"/>
     </row>
     <row r="980">
-      <c r="A980" s="11"/>
+      <c r="A980" s="12"/>
     </row>
     <row r="981">
-      <c r="A981" s="11"/>
+      <c r="A981" s="12"/>
     </row>
     <row r="982">
-      <c r="A982" s="11"/>
+      <c r="A982" s="12"/>
     </row>
     <row r="983">
-      <c r="A983" s="11"/>
+      <c r="A983" s="12"/>
     </row>
     <row r="984">
-      <c r="A984" s="11"/>
+      <c r="A984" s="12"/>
     </row>
     <row r="985">
-      <c r="A985" s="11"/>
+      <c r="A985" s="12"/>
     </row>
     <row r="986">
-      <c r="A986" s="11"/>
+      <c r="A986" s="12"/>
     </row>
     <row r="987">
-      <c r="A987" s="11"/>
+      <c r="A987" s="12"/>
     </row>
     <row r="988">
-      <c r="A988" s="11"/>
+      <c r="A988" s="12"/>
     </row>
     <row r="989">
-      <c r="A989" s="11"/>
+      <c r="A989" s="12"/>
     </row>
     <row r="990">
-      <c r="A990" s="11"/>
+      <c r="A990" s="12"/>
     </row>
     <row r="991">
-      <c r="A991" s="11"/>
+      <c r="A991" s="12"/>
     </row>
     <row r="992">
-      <c r="A992" s="11"/>
+      <c r="A992" s="12"/>
     </row>
     <row r="993">
-      <c r="A993" s="11"/>
+      <c r="A993" s="12"/>
     </row>
     <row r="994">
-      <c r="A994" s="11"/>
+      <c r="A994" s="12"/>
     </row>
     <row r="995">
-      <c r="A995" s="11"/>
+      <c r="A995" s="12"/>
     </row>
     <row r="996">
-      <c r="A996" s="11"/>
+      <c r="A996" s="12"/>
     </row>
     <row r="997">
-      <c r="A997" s="11"/>
+      <c r="A997" s="12"/>
     </row>
     <row r="998">
-      <c r="A998" s="11"/>
+      <c r="A998" s="12"/>
     </row>
     <row r="999">
-      <c r="A999" s="11"/>
+      <c r="A999" s="12"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="11"/>
+      <c r="A1000" s="12"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="11"/>
+      <c r="A1001" s="12"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="11"/>
+      <c r="A1002" s="12"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="11"/>
+      <c r="A1003" s="12"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="11"/>
+      <c r="A1004" s="12"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="11"/>
+      <c r="A1005" s="12"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="11"/>
+      <c r="A1006" s="12"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="11"/>
+      <c r="A1007" s="12"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="11"/>
+      <c r="A1008" s="12"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="11"/>
+      <c r="A1009" s="12"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="11"/>
+      <c r="A1010" s="12"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="11"/>
+      <c r="A1011" s="12"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="11"/>
+      <c r="A1012" s="12"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="11"/>
+      <c r="A1013" s="12"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="11"/>
+      <c r="A1014" s="12"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="11"/>
+      <c r="A1015" s="12"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="11"/>
+      <c r="A1016" s="12"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="11"/>
+      <c r="A1017" s="12"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="11"/>
+      <c r="A1018" s="12"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="11"/>
+      <c r="A1019" s="12"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="11"/>
+      <c r="A1020" s="12"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="11"/>
+      <c r="A1021" s="12"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="11"/>
+      <c r="A1022" s="12"/>
     </row>
     <row r="1023">
-      <c r="A1023" s="11"/>
+      <c r="A1023" s="12"/>
     </row>
     <row r="1024">
-      <c r="A1024" s="11"/>
+      <c r="A1024" s="12"/>
     </row>
     <row r="1025">
-      <c r="A1025" s="11"/>
+      <c r="A1025" s="12"/>
     </row>
     <row r="1026">
-      <c r="A1026" s="11"/>
+      <c r="A1026" s="12"/>
     </row>
     <row r="1027">
-      <c r="A1027" s="11"/>
+      <c r="A1027" s="12"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="11"/>
+      <c r="A1028" s="12"/>
     </row>
     <row r="1029">
-      <c r="A1029" s="11"/>
+      <c r="A1029" s="12"/>
     </row>
     <row r="1030">
-      <c r="A1030" s="11"/>
+      <c r="A1030" s="12"/>
     </row>
     <row r="1031">
-      <c r="A1031" s="11"/>
+      <c r="A1031" s="12"/>
     </row>
     <row r="1032">
-      <c r="A1032" s="11"/>
+      <c r="A1032" s="12"/>
     </row>
     <row r="1033">
-      <c r="A1033" s="11"/>
+      <c r="A1033" s="12"/>
     </row>
     <row r="1034">
-      <c r="A1034" s="11"/>
+      <c r="A1034" s="12"/>
     </row>
     <row r="1035">
-      <c r="A1035" s="11"/>
+      <c r="A1035" s="12"/>
     </row>
     <row r="1036">
-      <c r="A1036" s="11"/>
+      <c r="A1036" s="12"/>
     </row>
     <row r="1037">
-      <c r="A1037" s="11"/>
+      <c r="A1037" s="12"/>
     </row>
     <row r="1038">
-      <c r="A1038" s="11"/>
+      <c r="A1038" s="12"/>
     </row>
     <row r="1039">
-      <c r="A1039" s="11"/>
+      <c r="A1039" s="12"/>
     </row>
     <row r="1040">
-      <c r="A1040" s="11"/>
+      <c r="A1040" s="12"/>
     </row>
     <row r="1041">
-      <c r="A1041" s="11"/>
+      <c r="A1041" s="12"/>
     </row>
     <row r="1042">
-      <c r="A1042" s="11"/>
+      <c r="A1042" s="12"/>
     </row>
     <row r="1043">
-      <c r="A1043" s="11"/>
+      <c r="A1043" s="12"/>
     </row>
     <row r="1044">
-      <c r="A1044" s="11"/>
+      <c r="A1044" s="12"/>
     </row>
     <row r="1045">
-      <c r="A1045" s="11"/>
+      <c r="A1045" s="12"/>
     </row>
     <row r="1046">
-      <c r="A1046" s="11"/>
+      <c r="A1046" s="12"/>
     </row>
     <row r="1047">
-      <c r="A1047" s="11"/>
+      <c r="A1047" s="12"/>
     </row>
     <row r="1048">
-      <c r="A1048" s="11"/>
+      <c r="A1048" s="12"/>
     </row>
     <row r="1049">
-      <c r="A1049" s="11"/>
+      <c r="A1049" s="12"/>
     </row>
     <row r="1050">
-      <c r="A1050" s="11"/>
+      <c r="A1050" s="12"/>
     </row>
     <row r="1051">
-      <c r="A1051" s="11"/>
+      <c r="A1051" s="12"/>
     </row>
     <row r="1052">
-      <c r="A1052" s="11"/>
+      <c r="A1052" s="12"/>
     </row>
     <row r="1053">
-      <c r="A1053" s="11"/>
+      <c r="A1053" s="12"/>
     </row>
     <row r="1054">
-      <c r="A1054" s="11"/>
+      <c r="A1054" s="12"/>
     </row>
     <row r="1055">
-      <c r="A1055" s="11"/>
+      <c r="A1055" s="12"/>
     </row>
     <row r="1056">
-      <c r="A1056" s="11"/>
+      <c r="A1056" s="12"/>
     </row>
     <row r="1057">
-      <c r="A1057" s="11"/>
+      <c r="A1057" s="12"/>
     </row>
     <row r="1058">
-      <c r="A1058" s="11"/>
+      <c r="A1058" s="12"/>
     </row>
     <row r="1059">
-      <c r="A1059" s="11"/>
+      <c r="A1059" s="12"/>
     </row>
     <row r="1060">
-      <c r="A1060" s="11"/>
+      <c r="A1060" s="12"/>
     </row>
     <row r="1061">
-      <c r="A1061" s="11"/>
+      <c r="A1061" s="12"/>
     </row>
     <row r="1062">
-      <c r="A1062" s="11"/>
+      <c r="A1062" s="12"/>
     </row>
     <row r="1063">
-      <c r="A1063" s="11"/>
+      <c r="A1063" s="12"/>
     </row>
     <row r="1064">
-      <c r="A1064" s="11"/>
+      <c r="A1064" s="12"/>
     </row>
     <row r="1065">
-      <c r="A1065" s="11"/>
+      <c r="A1065" s="12"/>
     </row>
     <row r="1066">
-      <c r="A1066" s="11"/>
+      <c r="A1066" s="12"/>
     </row>
     <row r="1067">
-      <c r="A1067" s="11"/>
+      <c r="A1067" s="12"/>
     </row>
     <row r="1068">
-      <c r="A1068" s="11"/>
+      <c r="A1068" s="12"/>
     </row>
     <row r="1069">
-      <c r="A1069" s="11"/>
+      <c r="A1069" s="12"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="12"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="12"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="12"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="12"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$135">
-    <sortState ref="A1:C135">
-      <sortCondition ref="A1:A135"/>
-      <sortCondition ref="B1:B135"/>
-      <sortCondition ref="C1:C135"/>
+  <autoFilter ref="$A$1:$C$142">
+    <sortState ref="A1:C142">
+      <sortCondition ref="A1:A142"/>
+      <sortCondition ref="B1:B142"/>
+      <sortCondition ref="C1:C142"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
